--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>854272.4300288851</v>
+        <v>850189.8055359267</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8939234.597277986</v>
+        <v>8939234.597277982</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>200.2132123057007</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>209.6911583644349</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>19.17270902173595</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -788,7 +788,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>65.33963711546097</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>86.64940239199041</v>
+        <v>115.6099017099844</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>131.6609931201657</v>
+        <v>2.629791531443934</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1025,7 +1025,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>65.33963711546052</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1040,7 +1040,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>119.1722736598194</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>112.8381367815073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -1068,7 +1068,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>134.6152579576184</v>
       </c>
       <c r="D8" t="n">
-        <v>125.0731685658853</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1214,13 +1214,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>80.90595492183921</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802211</v>
+        <v>66.84029276655161</v>
       </c>
       <c r="F9" t="n">
         <v>123.1874880556995</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.901147974459783</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>87.95308749070807</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1387,7 +1387,7 @@
         <v>407.8019204350209</v>
       </c>
       <c r="H11" t="n">
-        <v>236.9948782796484</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>290.4620861351321</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>121.3651783815242</v>
       </c>
       <c r="T12" t="n">
-        <v>172.5630456075552</v>
+        <v>172.5630456075553</v>
       </c>
       <c r="U12" t="n">
         <v>207.9192432035604</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.021494497001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.86992168242006</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>231.0059641921533</v>
+        <v>119.7056635292864</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V13" t="n">
-        <v>62.60244124647379</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>289.8815953628694</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1624,10 +1624,10 @@
         <v>407.8019204350209</v>
       </c>
       <c r="H14" t="n">
-        <v>141.8619170975965</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>89.56472275210685</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T14" t="n">
         <v>215.8847404892529</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>10.31530099044322</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>149.021494497001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>97.14085915173686</v>
       </c>
       <c r="T16" t="n">
         <v>231.0059641921533</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>32.42225997113354</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>215.8847404892529</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>367.0765689638454</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U19" t="n">
-        <v>188.281409241185</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>109.5806399086562</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.4102391366508</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H20" t="n">
-        <v>308.2535983959666</v>
+        <v>300.0955466683483</v>
       </c>
       <c r="I20" t="n">
-        <v>89.56472275210685</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>215.8847404892529</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.0201331842246</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>149.021494497001</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.81819842792599</v>
       </c>
       <c r="T22" t="n">
-        <v>117.7044064409413</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>250.0783869675844</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>407.8019204350209</v>
       </c>
       <c r="H23" t="n">
-        <v>308.2535983959666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.596568594714449</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.86992168242006</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>98.23441930700949</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>201.4647656216242</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>349.6440367746428</v>
+        <v>320.7891615203877</v>
       </c>
     </row>
     <row r="27">
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>166.0201331842246</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T28" t="n">
-        <v>174.5664709165849</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>231.4774769621954</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>407.8019204350209</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>305.8860807616036</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>259.262461756704</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>118.2015357431744</v>
       </c>
       <c r="H30" t="n">
-        <v>81.06259933844458</v>
+        <v>81.06259933844474</v>
       </c>
       <c r="I30" t="n">
         <v>26.24943651580975</v>
@@ -2924,7 +2924,7 @@
         <v>121.3651783815242</v>
       </c>
       <c r="T30" t="n">
-        <v>172.5630456075557</v>
+        <v>172.5630456075553</v>
       </c>
       <c r="U30" t="n">
         <v>207.9192432035604</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>115.5292519607123</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.86992168242006</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>231.0059641921533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>178.6916830500737</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H32" t="n">
-        <v>308.2535983959666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T32" t="n">
         <v>215.8847404892529</v>
       </c>
       <c r="U32" t="n">
-        <v>109.7193753363445</v>
+        <v>189.2479197542542</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H34" t="n">
-        <v>149.021494497001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>97.86992168242006</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T34" t="n">
-        <v>231.0059641921533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>34.18427214720894</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>39.97976924123654</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>157.2570186044961</v>
+        <v>220.4632126571757</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T35" t="n">
-        <v>215.8847404892529</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -3438,13 +3438,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.021494497001</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.7818116509216</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>21.14218541793403</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>96.54717110664366</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>136.8378531040666</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>317.9627483313038</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>149.021494497001</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.7800089716906</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>76.78491681131882</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>313.9020470396198</v>
+        <v>14.09315494622599</v>
       </c>
       <c r="H41" t="n">
         <v>308.2535983959666</v>
       </c>
       <c r="I41" t="n">
-        <v>89.56472275210685</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>149.021494497001</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>173.1473020912385</v>
+        <v>119.7056635292864</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.4272089228542</v>
       </c>
       <c r="I44" t="n">
-        <v>85.25394441679836</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>149.021494497001</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.86992168242006</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>149.8636959680997</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>106.3492552140539</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1399.741653781569</v>
+        <v>1471.374477573328</v>
       </c>
       <c r="C2" t="n">
-        <v>1399.741653781569</v>
+        <v>1078.198976076258</v>
       </c>
       <c r="D2" t="n">
-        <v>1014.300524998237</v>
+        <v>1078.198976076258</v>
       </c>
       <c r="E2" t="n">
-        <v>1014.300524998237</v>
+        <v>1078.198976076258</v>
       </c>
       <c r="F2" t="n">
-        <v>597.4060865282149</v>
+        <v>661.3045376062361</v>
       </c>
       <c r="G2" t="n">
-        <v>184.2433310162181</v>
+        <v>248.1417820942392</v>
       </c>
       <c r="H2" t="n">
-        <v>184.2433310162181</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I2" t="n">
         <v>45.90621410868296</v>
       </c>
       <c r="J2" t="n">
-        <v>45.90621410868296</v>
+        <v>190.5559870175111</v>
       </c>
       <c r="K2" t="n">
-        <v>404.8885701361448</v>
+        <v>549.5383430449729</v>
       </c>
       <c r="L2" t="n">
-        <v>898.2088618546736</v>
+        <v>1042.858634763502</v>
       </c>
       <c r="M2" t="n">
-        <v>1444.209761899254</v>
+        <v>1588.859534808082</v>
       </c>
       <c r="N2" t="n">
-        <v>1972.021045536716</v>
+        <v>1670.425544400871</v>
       </c>
       <c r="O2" t="n">
-        <v>1972.021045536716</v>
+        <v>2110.465145293199</v>
       </c>
       <c r="P2" t="n">
         <v>2110.465145293199</v>
@@ -4357,25 +4357,25 @@
         <v>2257.31779171967</v>
       </c>
       <c r="S2" t="n">
-        <v>2090.804236660721</v>
+        <v>2257.31779171967</v>
       </c>
       <c r="T2" t="n">
-        <v>1867.303634220137</v>
+        <v>2257.31779171967</v>
       </c>
       <c r="U2" t="n">
-        <v>1611.550904654736</v>
+        <v>2257.31779171967</v>
       </c>
       <c r="V2" t="n">
-        <v>1611.550904654736</v>
+        <v>2257.31779171967</v>
       </c>
       <c r="W2" t="n">
-        <v>1399.741653781569</v>
+        <v>2257.31779171967</v>
       </c>
       <c r="X2" t="n">
-        <v>1399.741653781569</v>
+        <v>1867.865186652727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1399.741653781569</v>
+        <v>1471.374477573328</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>845.2721972487138</v>
+        <v>776.3411535985431</v>
       </c>
       <c r="C3" t="n">
-        <v>694.617966808806</v>
+        <v>625.6869231586353</v>
       </c>
       <c r="D3" t="n">
-        <v>564.5289994302864</v>
+        <v>495.5979557801156</v>
       </c>
       <c r="E3" t="n">
-        <v>428.0825085411741</v>
+        <v>359.1514648910033</v>
       </c>
       <c r="F3" t="n">
-        <v>303.650702424306</v>
+        <v>234.7196587741352</v>
       </c>
       <c r="G3" t="n">
-        <v>183.5908844961704</v>
+        <v>114.6598408459996</v>
       </c>
       <c r="H3" t="n">
         <v>95.29346809677136</v>
@@ -4412,22 +4412,22 @@
         <v>159.0211963284103</v>
       </c>
       <c r="K3" t="n">
-        <v>441.2007287910411</v>
+        <v>159.0211963284103</v>
       </c>
       <c r="L3" t="n">
-        <v>924.7668146893543</v>
+        <v>642.5872822267236</v>
       </c>
       <c r="M3" t="n">
-        <v>1492.856214284306</v>
+        <v>1210.676681821675</v>
       </c>
       <c r="N3" t="n">
-        <v>2060.945613879258</v>
+        <v>1778.766081416627</v>
       </c>
       <c r="O3" t="n">
-        <v>2060.945613879258</v>
+        <v>2295.286364007608</v>
       </c>
       <c r="P3" t="n">
-        <v>2060.945613879258</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q3" t="n">
         <v>2295.310705434148</v>
@@ -4436,25 +4436,25 @@
         <v>2271.393662332212</v>
       </c>
       <c r="S3" t="n">
-        <v>2205.394028882252</v>
+        <v>2136.462985232081</v>
       </c>
       <c r="T3" t="n">
-        <v>2028.41021708116</v>
+        <v>1959.47917343099</v>
       </c>
       <c r="U3" t="n">
-        <v>1818.347073759802</v>
+        <v>1749.416030109631</v>
       </c>
       <c r="V3" t="n">
-        <v>1595.807072130869</v>
+        <v>1526.876028480699</v>
       </c>
       <c r="W3" t="n">
-        <v>1365.689826264156</v>
+        <v>1296.758782613985</v>
       </c>
       <c r="X3" t="n">
-        <v>1176.382748614168</v>
+        <v>1107.451704963997</v>
       </c>
       <c r="Y3" t="n">
-        <v>997.0685316896752</v>
+        <v>928.1374880395044</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1968.593632249275</v>
+        <v>488.5221236351127</v>
       </c>
       <c r="C4" t="n">
-        <v>1968.593632249275</v>
+        <v>318.3170057011019</v>
       </c>
       <c r="D4" t="n">
-        <v>1968.593632249275</v>
+        <v>162.6838926036167</v>
       </c>
       <c r="E4" t="n">
-        <v>1968.593632249275</v>
+        <v>162.6838926036167</v>
       </c>
       <c r="F4" t="n">
-        <v>1881.068983368476</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="G4" t="n">
-        <v>1712.814929467922</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H4" t="n">
-        <v>1557.336378429416</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I4" t="n">
-        <v>1424.241953066494</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J4" t="n">
-        <v>1393.863682892596</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="K4" t="n">
-        <v>1475.698724002537</v>
+        <v>127.7412552186248</v>
       </c>
       <c r="L4" t="n">
-        <v>1639.826363876337</v>
+        <v>291.8688950924246</v>
       </c>
       <c r="M4" t="n">
-        <v>1826.117942214601</v>
+        <v>478.1604734306886</v>
       </c>
       <c r="N4" t="n">
-        <v>2009.30757624581</v>
+        <v>661.3501074618978</v>
       </c>
       <c r="O4" t="n">
-        <v>2172.012343287518</v>
+        <v>824.0548745036058</v>
       </c>
       <c r="P4" t="n">
-        <v>2291.888509064097</v>
+        <v>943.9310402801843</v>
       </c>
       <c r="Q4" t="n">
-        <v>2295.310705434148</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="R4" t="n">
-        <v>2171.409716066725</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="S4" t="n">
-        <v>1968.593632249275</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="T4" t="n">
-        <v>1968.593632249275</v>
+        <v>711.6341848184694</v>
       </c>
       <c r="U4" t="n">
-        <v>1968.593632249275</v>
+        <v>711.6341848184694</v>
       </c>
       <c r="V4" t="n">
-        <v>1968.593632249275</v>
+        <v>711.6341848184694</v>
       </c>
       <c r="W4" t="n">
-        <v>1968.593632249275</v>
+        <v>711.6341848184694</v>
       </c>
       <c r="X4" t="n">
-        <v>1968.593632249275</v>
+        <v>711.6341848184694</v>
       </c>
       <c r="Y4" t="n">
-        <v>1968.593632249275</v>
+        <v>488.5221236351127</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1338.383575431747</v>
+        <v>934.3431713913426</v>
       </c>
       <c r="C5" t="n">
-        <v>1338.383575431747</v>
+        <v>934.3431713913426</v>
       </c>
       <c r="D5" t="n">
-        <v>1338.383575431747</v>
+        <v>934.3431713913426</v>
       </c>
       <c r="E5" t="n">
-        <v>1338.383575431747</v>
+        <v>934.3431713913426</v>
       </c>
       <c r="F5" t="n">
         <v>921.4891369617244</v>
@@ -4564,7 +4564,7 @@
         <v>184.2433310162181</v>
       </c>
       <c r="I5" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J5" t="n">
         <v>190.5559870175111</v>
@@ -4579,40 +4579,40 @@
         <v>1588.859534808082</v>
       </c>
       <c r="N5" t="n">
-        <v>1762.277653161678</v>
+        <v>1855.271104541819</v>
       </c>
       <c r="O5" t="n">
-        <v>1762.277653161678</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="P5" t="n">
-        <v>2110.465145293199</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q5" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="R5" t="n">
-        <v>2257.31779171967</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.326889578088</v>
+        <v>2292.654350351881</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.326889578088</v>
+        <v>2292.654350351881</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.326889578088</v>
+        <v>2036.90162078648</v>
       </c>
       <c r="V5" t="n">
-        <v>2124.326889578088</v>
+        <v>1694.794811489998</v>
       </c>
       <c r="W5" t="n">
-        <v>2124.326889578088</v>
+        <v>1323.795776458286</v>
       </c>
       <c r="X5" t="n">
-        <v>1734.874284511145</v>
+        <v>934.3431713913426</v>
       </c>
       <c r="Y5" t="n">
-        <v>1338.383575431747</v>
+        <v>934.3431713913426</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>95.29346809677136</v>
       </c>
       <c r="I6" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J6" t="n">
-        <v>45.90621410868296</v>
+        <v>159.0211963284103</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0455377549507</v>
+        <v>478.7603423906368</v>
       </c>
       <c r="L6" t="n">
-        <v>642.6116236532639</v>
+        <v>962.32642828895</v>
       </c>
       <c r="M6" t="n">
-        <v>1210.701023248216</v>
+        <v>962.32642828895</v>
       </c>
       <c r="N6" t="n">
-        <v>1778.790422843167</v>
+        <v>1530.415827883901</v>
       </c>
       <c r="O6" t="n">
-        <v>2295.310705434148</v>
+        <v>1655.32424516286</v>
       </c>
       <c r="P6" t="n">
-        <v>2295.310705434148</v>
+        <v>2060.945613879257</v>
       </c>
       <c r="Q6" t="n">
         <v>2295.310705434148</v>
@@ -4673,19 +4673,19 @@
         <v>2271.393662332212</v>
       </c>
       <c r="S6" t="n">
-        <v>2136.462985232081</v>
+        <v>2205.394028882252</v>
       </c>
       <c r="T6" t="n">
-        <v>1959.47917343099</v>
+        <v>2028.41021708116</v>
       </c>
       <c r="U6" t="n">
-        <v>1749.416030109631</v>
+        <v>1818.347073759802</v>
       </c>
       <c r="V6" t="n">
-        <v>1526.876028480699</v>
+        <v>1595.807072130869</v>
       </c>
       <c r="W6" t="n">
-        <v>1296.758782613985</v>
+        <v>1365.689826264156</v>
       </c>
       <c r="X6" t="n">
         <v>1176.382748614168</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>845.9962615123882</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="C7" t="n">
-        <v>845.9962615123882</v>
+        <v>833.3753207093189</v>
       </c>
       <c r="D7" t="n">
-        <v>845.9962615123882</v>
+        <v>677.7422076118337</v>
       </c>
       <c r="E7" t="n">
-        <v>690.4374493715907</v>
+        <v>522.1833954710362</v>
       </c>
       <c r="F7" t="n">
-        <v>533.1115145845637</v>
+        <v>364.8574606840092</v>
       </c>
       <c r="G7" t="n">
         <v>364.8574606840092</v>
@@ -4722,10 +4722,10 @@
         <v>209.3789096455031</v>
       </c>
       <c r="I7" t="n">
-        <v>76.28448428258102</v>
+        <v>76.284484282581</v>
       </c>
       <c r="J7" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="K7" t="n">
         <v>127.7412552186248</v>
@@ -4764,13 +4764,13 @@
         <v>947.3532366502353</v>
       </c>
       <c r="W7" t="n">
-        <v>845.9962615123882</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="X7" t="n">
-        <v>845.9962615123882</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.9962615123882</v>
+        <v>947.3532366502353</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1867.303634220137</v>
+        <v>1070.318179429341</v>
       </c>
       <c r="C8" t="n">
-        <v>1867.303634220137</v>
+        <v>934.3431713913426</v>
       </c>
       <c r="D8" t="n">
-        <v>1740.967100315202</v>
+        <v>934.3431713913426</v>
       </c>
       <c r="E8" t="n">
-        <v>1338.383575431747</v>
+        <v>934.3431713913426</v>
       </c>
       <c r="F8" t="n">
         <v>921.4891369617244</v>
@@ -4804,25 +4804,25 @@
         <v>45.90621410868295</v>
       </c>
       <c r="J8" t="n">
-        <v>45.90621410868295</v>
+        <v>190.5559870175111</v>
       </c>
       <c r="K8" t="n">
-        <v>404.8885701361448</v>
+        <v>549.5383430449729</v>
       </c>
       <c r="L8" t="n">
-        <v>404.8885701361448</v>
+        <v>1042.858634763502</v>
       </c>
       <c r="M8" t="n">
-        <v>950.8894701807253</v>
+        <v>1588.859534808082</v>
       </c>
       <c r="N8" t="n">
-        <v>1322.238052269349</v>
+        <v>1947.123213302626</v>
       </c>
       <c r="O8" t="n">
-        <v>1762.277653161677</v>
+        <v>1947.123213302626</v>
       </c>
       <c r="P8" t="n">
-        <v>2110.465145293199</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q8" t="n">
         <v>2295.310705434148</v>
@@ -4849,7 +4849,7 @@
         <v>1867.303634220137</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.303634220137</v>
+        <v>1470.812925140738</v>
       </c>
     </row>
     <row r="9">
@@ -4862,10 +4862,10 @@
         <v>776.3411535985426</v>
       </c>
       <c r="C9" t="n">
-        <v>694.617966808806</v>
+        <v>625.6869231586348</v>
       </c>
       <c r="D9" t="n">
-        <v>564.5289994302864</v>
+        <v>495.5979557801152</v>
       </c>
       <c r="E9" t="n">
         <v>428.0825085411741</v>
@@ -4883,25 +4883,25 @@
         <v>45.90621410868295</v>
       </c>
       <c r="J9" t="n">
-        <v>159.0211963284103</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="K9" t="n">
-        <v>478.7603423906368</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="L9" t="n">
-        <v>962.32642828895</v>
+        <v>529.4723000069962</v>
       </c>
       <c r="M9" t="n">
-        <v>1138.803962571878</v>
+        <v>1097.561699601948</v>
       </c>
       <c r="N9" t="n">
-        <v>1138.803962571878</v>
+        <v>1665.651099196899</v>
       </c>
       <c r="O9" t="n">
-        <v>1655.32424516286</v>
+        <v>2182.17138178788</v>
       </c>
       <c r="P9" t="n">
-        <v>2060.945613879257</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q9" t="n">
         <v>2295.310705434148</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.86696963844031</v>
+        <v>216.1113320426937</v>
       </c>
       <c r="C10" t="n">
-        <v>51.86696963844031</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="D10" t="n">
-        <v>51.86696963844031</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="E10" t="n">
-        <v>51.86696963844031</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="F10" t="n">
-        <v>51.86696963844031</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="G10" t="n">
-        <v>51.86696963844031</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="H10" t="n">
         <v>45.90621410868295</v>
@@ -4986,28 +4986,28 @@
         <v>947.3532366502353</v>
       </c>
       <c r="R10" t="n">
-        <v>823.4522472828123</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="S10" t="n">
-        <v>620.6361634653617</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="T10" t="n">
-        <v>620.6361634653617</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="U10" t="n">
-        <v>335.1973717072627</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="V10" t="n">
-        <v>335.1973717072627</v>
+        <v>947.3532366502353</v>
       </c>
       <c r="W10" t="n">
-        <v>51.86696963844031</v>
+        <v>858.5117341343686</v>
       </c>
       <c r="X10" t="n">
-        <v>51.86696963844031</v>
+        <v>624.4314119173516</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.86696963844031</v>
+        <v>401.319350733995</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2295.310705434148</v>
+        <v>1186.089055438289</v>
       </c>
       <c r="C11" t="n">
-        <v>1902.135203937078</v>
+        <v>1186.089055438289</v>
       </c>
       <c r="D11" t="n">
-        <v>1516.694075153746</v>
+        <v>1186.089055438289</v>
       </c>
       <c r="E11" t="n">
-        <v>1114.11055027029</v>
+        <v>1186.089055438289</v>
       </c>
       <c r="F11" t="n">
-        <v>697.2161118002681</v>
+        <v>769.1946169682662</v>
       </c>
       <c r="G11" t="n">
-        <v>285.2949800477218</v>
+        <v>357.2734852157199</v>
       </c>
       <c r="H11" t="n">
         <v>45.90621410868295</v>
@@ -5047,19 +5047,19 @@
         <v>807.618728679222</v>
       </c>
       <c r="L11" t="n">
-        <v>1375.708128274174</v>
+        <v>847.9414249912711</v>
       </c>
       <c r="M11" t="n">
-        <v>1441.160031611798</v>
+        <v>913.3933283288953</v>
       </c>
       <c r="N11" t="n">
-        <v>1510.669990619524</v>
+        <v>982.9032873366219</v>
       </c>
       <c r="O11" t="n">
-        <v>1567.638354029301</v>
+        <v>1455.87051285284</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.819808531593</v>
+        <v>1979.051967355132</v>
       </c>
       <c r="Q11" t="n">
         <v>2295.310705434148</v>
@@ -5071,22 +5071,22 @@
         <v>2295.310705434148</v>
       </c>
       <c r="T11" t="n">
-        <v>2295.310705434148</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="U11" t="n">
-        <v>2295.310705434148</v>
+        <v>1821.591911335914</v>
       </c>
       <c r="V11" t="n">
-        <v>2295.310705434148</v>
+        <v>1479.485102039432</v>
       </c>
       <c r="W11" t="n">
-        <v>2295.310705434148</v>
+        <v>1186.089055438289</v>
       </c>
       <c r="X11" t="n">
-        <v>2295.310705434148</v>
+        <v>1186.089055438289</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.310705434148</v>
+        <v>1186.089055438289</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>815.3191953951401</v>
+        <v>815.3191953951405</v>
       </c>
       <c r="C12" t="n">
-        <v>664.6649649552323</v>
+        <v>664.6649649552326</v>
       </c>
       <c r="D12" t="n">
-        <v>534.5759975767127</v>
+        <v>534.5759975767128</v>
       </c>
       <c r="E12" t="n">
-        <v>398.1295066876004</v>
+        <v>398.1295066876005</v>
       </c>
       <c r="F12" t="n">
-        <v>273.6977005707322</v>
+        <v>273.6977005707321</v>
       </c>
       <c r="G12" t="n">
         <v>154.3022099210611</v>
@@ -5120,28 +5120,28 @@
         <v>45.90621410868295</v>
       </c>
       <c r="J12" t="n">
-        <v>220.5365448138743</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9751074160817</v>
+        <v>62.34477671089032</v>
       </c>
       <c r="L12" t="n">
-        <v>805.0645070110331</v>
+        <v>630.4341763058418</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.153906605985</v>
+        <v>1198.523575900793</v>
       </c>
       <c r="N12" t="n">
-        <v>1457.977636872817</v>
+        <v>1354.637910620037</v>
       </c>
       <c r="O12" t="n">
-        <v>1939.711975203061</v>
+        <v>1922.727310214988</v>
       </c>
       <c r="P12" t="n">
-        <v>1977.832355334113</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q12" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="R12" t="n">
         <v>2295.310705434148</v>
@@ -5150,7 +5150,7 @@
         <v>2172.719616159881</v>
       </c>
       <c r="T12" t="n">
-        <v>1998.413509485583</v>
+        <v>1998.413509485582</v>
       </c>
       <c r="U12" t="n">
         <v>1788.394071906229</v>
@@ -5162,10 +5162,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X12" t="n">
-        <v>1146.429746760594</v>
+        <v>1146.429746760595</v>
       </c>
       <c r="Y12" t="n">
-        <v>967.1155298361015</v>
+        <v>967.1155298361018</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.1086232609719</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="C13" t="n">
-        <v>636.1086232609719</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="D13" t="n">
-        <v>480.4755101634867</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="E13" t="n">
-        <v>480.4755101634867</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="F13" t="n">
-        <v>480.4755101634867</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="G13" t="n">
-        <v>312.7784059369972</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I13" t="n">
         <v>45.90621410868295</v>
@@ -5223,28 +5223,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R13" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S13" t="n">
-        <v>1166.763092385693</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="T13" t="n">
-        <v>933.4237346158411</v>
+        <v>1337.816757442023</v>
       </c>
       <c r="U13" t="n">
-        <v>933.4237346158411</v>
+        <v>1052.408344757055</v>
       </c>
       <c r="V13" t="n">
-        <v>870.1889454779888</v>
+        <v>786.4289995778788</v>
       </c>
       <c r="W13" t="n">
-        <v>870.1889454779888</v>
+        <v>503.0985975090565</v>
       </c>
       <c r="X13" t="n">
-        <v>636.1086232609719</v>
+        <v>269.0182752920396</v>
       </c>
       <c r="Y13" t="n">
-        <v>636.1086232609719</v>
+        <v>45.90621410868295</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1108.48606700772</v>
+        <v>1167.531476616978</v>
       </c>
       <c r="C14" t="n">
-        <v>1108.48606700772</v>
+        <v>1167.531476616978</v>
       </c>
       <c r="D14" t="n">
-        <v>1108.48606700772</v>
+        <v>1167.531476616978</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.48606700772</v>
+        <v>874.7217843312515</v>
       </c>
       <c r="F14" t="n">
-        <v>691.5916285376974</v>
+        <v>457.8273458612293</v>
       </c>
       <c r="G14" t="n">
-        <v>279.670496785151</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="H14" t="n">
-        <v>136.375631030003</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I14" t="n">
         <v>45.90621410868295</v>
       </c>
       <c r="J14" t="n">
-        <v>45.90621410868295</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K14" t="n">
-        <v>152.414665364968</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L14" t="n">
-        <v>720.5040649599194</v>
+        <v>1219.083505547144</v>
       </c>
       <c r="M14" t="n">
-        <v>1288.593464554871</v>
+        <v>1787.172905142096</v>
       </c>
       <c r="N14" t="n">
         <v>1856.682864149823</v>
@@ -5305,25 +5305,25 @@
         <v>2295.310705434148</v>
       </c>
       <c r="S14" t="n">
-        <v>2295.310705434148</v>
+        <v>2157.090651793676</v>
       </c>
       <c r="T14" t="n">
-        <v>2077.245311000559</v>
+        <v>1939.025257360088</v>
       </c>
       <c r="U14" t="n">
-        <v>1821.591911335914</v>
+        <v>1939.025257360088</v>
       </c>
       <c r="V14" t="n">
-        <v>1479.485102039432</v>
+        <v>1939.025257360088</v>
       </c>
       <c r="W14" t="n">
-        <v>1108.48606700772</v>
+        <v>1568.026222328375</v>
       </c>
       <c r="X14" t="n">
-        <v>1108.48606700772</v>
+        <v>1568.026222328375</v>
       </c>
       <c r="Y14" t="n">
-        <v>1108.48606700772</v>
+        <v>1568.026222328375</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>645.4152194583081</v>
       </c>
       <c r="L15" t="n">
-        <v>697.6285472724518</v>
+        <v>1209.402950278949</v>
       </c>
       <c r="M15" t="n">
-        <v>794.9649454537573</v>
+        <v>1282.915405406458</v>
       </c>
       <c r="N15" t="n">
-        <v>879.78867572059</v>
+        <v>1367.73913567329</v>
       </c>
       <c r="O15" t="n">
-        <v>1447.878075315542</v>
+        <v>1430.893410327469</v>
       </c>
       <c r="P15" t="n">
-        <v>1977.832355334113</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q15" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="R15" t="n">
         <v>2295.310705434148</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>959.4128661387391</v>
+        <v>201.5393272061682</v>
       </c>
       <c r="C16" t="n">
-        <v>948.9933701887965</v>
+        <v>201.5393272061682</v>
       </c>
       <c r="D16" t="n">
-        <v>793.3602570913113</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="E16" t="n">
-        <v>637.8014449505138</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="F16" t="n">
-        <v>480.4755101634867</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="G16" t="n">
-        <v>312.7784059369972</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I16" t="n">
         <v>45.90621410868295</v>
@@ -5463,25 +5463,25 @@
         <v>1458.731569087767</v>
       </c>
       <c r="S16" t="n">
-        <v>1458.731569087767</v>
+        <v>1360.609489136517</v>
       </c>
       <c r="T16" t="n">
-        <v>1225.392211317915</v>
+        <v>1127.270131366666</v>
       </c>
       <c r="U16" t="n">
-        <v>1225.392211317915</v>
+        <v>1127.270131366666</v>
       </c>
       <c r="V16" t="n">
-        <v>959.4128661387391</v>
+        <v>1127.270131366666</v>
       </c>
       <c r="W16" t="n">
-        <v>959.4128661387391</v>
+        <v>843.9397292978431</v>
       </c>
       <c r="X16" t="n">
-        <v>959.4128661387391</v>
+        <v>609.8594070808261</v>
       </c>
       <c r="Y16" t="n">
-        <v>959.4128661387391</v>
+        <v>386.7473458974695</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1644.000807742562</v>
+        <v>1153.032511596245</v>
       </c>
       <c r="C17" t="n">
-        <v>1250.825306245493</v>
+        <v>759.8570100991753</v>
       </c>
       <c r="D17" t="n">
-        <v>865.3841774621607</v>
+        <v>759.8570100991753</v>
       </c>
       <c r="E17" t="n">
-        <v>462.8006525787052</v>
+        <v>357.2734852157199</v>
       </c>
       <c r="F17" t="n">
-        <v>45.90621410868295</v>
+        <v>357.2734852157199</v>
       </c>
       <c r="G17" t="n">
-        <v>45.90621410868295</v>
+        <v>357.2734852157199</v>
       </c>
       <c r="H17" t="n">
         <v>45.90621410868295</v>
@@ -5515,52 +5515,52 @@
         <v>45.90621410868295</v>
       </c>
       <c r="J17" t="n">
-        <v>45.90621410868295</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K17" t="n">
-        <v>513.5301849945521</v>
+        <v>307.0085535043152</v>
       </c>
       <c r="L17" t="n">
-        <v>1081.619584589504</v>
+        <v>347.3312498163642</v>
       </c>
       <c r="M17" t="n">
-        <v>1147.071487927128</v>
+        <v>915.4206494113157</v>
       </c>
       <c r="N17" t="n">
-        <v>1715.160887522079</v>
+        <v>1483.510049006267</v>
       </c>
       <c r="O17" t="n">
-        <v>1772.129250931855</v>
+        <v>1540.478412416044</v>
       </c>
       <c r="P17" t="n">
-        <v>2295.310705434148</v>
+        <v>1939.846757161853</v>
       </c>
       <c r="Q17" t="n">
-        <v>2295.310705434148</v>
+        <v>2256.105495240869</v>
       </c>
       <c r="R17" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="S17" t="n">
-        <v>2262.560947887548</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="T17" t="n">
-        <v>2044.495553453959</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="U17" t="n">
-        <v>2044.495553453959</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="V17" t="n">
-        <v>2044.495553453959</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="W17" t="n">
-        <v>2044.495553453959</v>
+        <v>1924.311670402435</v>
       </c>
       <c r="X17" t="n">
-        <v>2044.495553453959</v>
+        <v>1553.527257307642</v>
       </c>
       <c r="Y17" t="n">
-        <v>2044.495553453959</v>
+        <v>1553.527257307642</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>815.3191953951405</v>
+        <v>815.31919539514</v>
       </c>
       <c r="C18" t="n">
-        <v>664.6649649552326</v>
+        <v>664.6649649552321</v>
       </c>
       <c r="D18" t="n">
-        <v>534.5759975767128</v>
+        <v>534.5759975767126</v>
       </c>
       <c r="E18" t="n">
-        <v>398.1295066876005</v>
+        <v>398.1295066876003</v>
       </c>
       <c r="F18" t="n">
-        <v>273.6977005707321</v>
+        <v>273.697700570732</v>
       </c>
       <c r="G18" t="n">
         <v>154.3022099210611</v>
@@ -5594,25 +5594,25 @@
         <v>45.90621410868295</v>
       </c>
       <c r="J18" t="n">
-        <v>45.90621410868295</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K18" t="n">
-        <v>470.7848887531167</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L18" t="n">
-        <v>1038.874288348068</v>
+        <v>1209.402950278949</v>
       </c>
       <c r="M18" t="n">
-        <v>1112.386743475577</v>
+        <v>1282.915405406458</v>
       </c>
       <c r="N18" t="n">
-        <v>1672.116260720071</v>
+        <v>1367.73913567329</v>
       </c>
       <c r="O18" t="n">
-        <v>2240.205660315023</v>
+        <v>1430.893410327469</v>
       </c>
       <c r="P18" t="n">
-        <v>2278.326040446075</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q18" t="n">
         <v>2278.326040446075</v>
@@ -5633,13 +5633,13 @@
         <v>1565.854070277296</v>
       </c>
       <c r="W18" t="n">
-        <v>1335.736824410583</v>
+        <v>1335.736824410582</v>
       </c>
       <c r="X18" t="n">
-        <v>1146.429746760595</v>
+        <v>1146.429746760594</v>
       </c>
       <c r="Y18" t="n">
-        <v>967.1155298361018</v>
+        <v>967.1155298361014</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>852.326296294493</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="C19" t="n">
-        <v>682.1211783604822</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="D19" t="n">
-        <v>526.488065262997</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="E19" t="n">
-        <v>370.9292531221995</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="F19" t="n">
-        <v>213.6033183351724</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="G19" t="n">
         <v>45.90621410868295</v>
@@ -5700,25 +5700,25 @@
         <v>1458.731569087767</v>
       </c>
       <c r="S19" t="n">
-        <v>1265.621599135612</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="T19" t="n">
-        <v>1265.621599135612</v>
+        <v>1225.392211317915</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.43835747785</v>
+        <v>939.9837986329467</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.43835747785</v>
+        <v>674.0044534537709</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.43835747785</v>
+        <v>390.6740513849485</v>
       </c>
       <c r="X19" t="n">
-        <v>1075.43835747785</v>
+        <v>156.5937291679316</v>
       </c>
       <c r="Y19" t="n">
-        <v>852.326296294493</v>
+        <v>45.90621410868295</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1108.48606700772</v>
+        <v>1556.713187058268</v>
       </c>
       <c r="C20" t="n">
-        <v>1108.48606700772</v>
+        <v>1163.537685561198</v>
       </c>
       <c r="D20" t="n">
-        <v>1108.48606700772</v>
+        <v>1163.537685561198</v>
       </c>
       <c r="E20" t="n">
-        <v>1108.48606700772</v>
+        <v>760.9541606777427</v>
       </c>
       <c r="F20" t="n">
-        <v>691.5916285376974</v>
+        <v>760.9541606777427</v>
       </c>
       <c r="G20" t="n">
-        <v>447.74290213704</v>
+        <v>349.0330289251964</v>
       </c>
       <c r="H20" t="n">
-        <v>136.375631030003</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I20" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J20" t="n">
-        <v>45.90621410868295</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K20" t="n">
-        <v>559.6847783813506</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L20" t="n">
-        <v>1127.774177976302</v>
+        <v>1375.708128274174</v>
       </c>
       <c r="M20" t="n">
-        <v>1193.226081313926</v>
+        <v>1631.515817229216</v>
       </c>
       <c r="N20" t="n">
-        <v>1398.902149443063</v>
+        <v>1701.025776236942</v>
       </c>
       <c r="O20" t="n">
-        <v>1455.87051285284</v>
+        <v>2269.115175831894</v>
       </c>
       <c r="P20" t="n">
-        <v>1979.051967355132</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q20" t="n">
         <v>2295.310705434148</v>
@@ -5782,22 +5782,22 @@
         <v>2295.310705434148</v>
       </c>
       <c r="T20" t="n">
-        <v>2077.245311000559</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="U20" t="n">
-        <v>1821.591911335914</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="V20" t="n">
-        <v>1479.485102039432</v>
+        <v>1953.203896137667</v>
       </c>
       <c r="W20" t="n">
-        <v>1108.48606700772</v>
+        <v>1953.203896137667</v>
       </c>
       <c r="X20" t="n">
-        <v>1108.48606700772</v>
+        <v>1953.203896137667</v>
       </c>
       <c r="Y20" t="n">
-        <v>1108.48606700772</v>
+        <v>1556.713187058268</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>815.3191953951401</v>
+        <v>815.3191953951405</v>
       </c>
       <c r="C21" t="n">
-        <v>664.6649649552323</v>
+        <v>664.6649649552326</v>
       </c>
       <c r="D21" t="n">
-        <v>534.5759975767127</v>
+        <v>534.5759975767128</v>
       </c>
       <c r="E21" t="n">
-        <v>398.1295066876004</v>
+        <v>398.1295066876005</v>
       </c>
       <c r="F21" t="n">
         <v>273.6977005707322</v>
@@ -5828,31 +5828,31 @@
         <v>72.42079644788473</v>
       </c>
       <c r="I21" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J21" t="n">
-        <v>45.90621410868295</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K21" t="n">
-        <v>470.7848887531167</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L21" t="n">
-        <v>1038.874288348068</v>
+        <v>697.6285472724518</v>
       </c>
       <c r="M21" t="n">
-        <v>1121.011526113192</v>
+        <v>771.1410023999607</v>
       </c>
       <c r="N21" t="n">
-        <v>1689.100925708144</v>
+        <v>862.804010732518</v>
       </c>
       <c r="O21" t="n">
-        <v>2257.190325303095</v>
+        <v>1430.89341032747</v>
       </c>
       <c r="P21" t="n">
-        <v>2295.310705434148</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q21" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446076</v>
       </c>
       <c r="R21" t="n">
         <v>2295.310705434148</v>
@@ -5873,10 +5873,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X21" t="n">
-        <v>1146.429746760594</v>
+        <v>1146.429746760595</v>
       </c>
       <c r="Y21" t="n">
-        <v>967.1155298361015</v>
+        <v>967.1155298361018</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>369.1621304759699</v>
+        <v>1119.198488122807</v>
       </c>
       <c r="C22" t="n">
-        <v>369.1621304759699</v>
+        <v>948.9933701887965</v>
       </c>
       <c r="D22" t="n">
-        <v>369.1621304759699</v>
+        <v>793.3602570913113</v>
       </c>
       <c r="E22" t="n">
-        <v>213.6033183351724</v>
+        <v>637.8014449505138</v>
       </c>
       <c r="F22" t="n">
-        <v>213.6033183351724</v>
+        <v>480.4755101634867</v>
       </c>
       <c r="G22" t="n">
-        <v>45.90621410868295</v>
+        <v>312.7784059369972</v>
       </c>
       <c r="H22" t="n">
-        <v>45.90621410868295</v>
+        <v>162.2516438188144</v>
       </c>
       <c r="I22" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J22" t="n">
-        <v>54.72522426270767</v>
+        <v>54.72522426270768</v>
       </c>
       <c r="K22" t="n">
         <v>199.9800133684946</v>
@@ -5937,25 +5937,25 @@
         <v>1458.731569087767</v>
       </c>
       <c r="S22" t="n">
-        <v>1458.731569087767</v>
+        <v>1385.177833301983</v>
       </c>
       <c r="T22" t="n">
-        <v>1339.838229248432</v>
+        <v>1385.177833301983</v>
       </c>
       <c r="U22" t="n">
-        <v>1054.429816563464</v>
+        <v>1385.177833301983</v>
       </c>
       <c r="V22" t="n">
-        <v>788.4504713842881</v>
+        <v>1119.198488122807</v>
       </c>
       <c r="W22" t="n">
-        <v>788.4504713842881</v>
+        <v>1119.198488122807</v>
       </c>
       <c r="X22" t="n">
-        <v>554.3701491672712</v>
+        <v>1119.198488122807</v>
       </c>
       <c r="Y22" t="n">
-        <v>554.3701491672712</v>
+        <v>1119.198488122807</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1186.089055438289</v>
+        <v>1127.32621561164</v>
       </c>
       <c r="C23" t="n">
-        <v>1186.089055438289</v>
+        <v>1127.32621561164</v>
       </c>
       <c r="D23" t="n">
-        <v>1186.089055438289</v>
+        <v>874.7217843312515</v>
       </c>
       <c r="E23" t="n">
-        <v>1186.089055438289</v>
+        <v>874.7217843312515</v>
       </c>
       <c r="F23" t="n">
-        <v>769.1946169682662</v>
+        <v>457.8273458612293</v>
       </c>
       <c r="G23" t="n">
-        <v>357.2734852157199</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="H23" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I23" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J23" t="n">
-        <v>45.90621410868295</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K23" t="n">
-        <v>191.6198755582461</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L23" t="n">
-        <v>759.7092751531976</v>
+        <v>847.9414249912711</v>
       </c>
       <c r="M23" t="n">
-        <v>1327.798674748149</v>
+        <v>913.3933283288953</v>
       </c>
       <c r="N23" t="n">
-        <v>1895.888074343101</v>
+        <v>982.9032873366219</v>
       </c>
       <c r="O23" t="n">
-        <v>1952.856437752877</v>
+        <v>1455.87051285284</v>
       </c>
       <c r="P23" t="n">
         <v>1979.051967355132</v>
@@ -6016,25 +6016,25 @@
         <v>2295.310705434148</v>
       </c>
       <c r="S23" t="n">
-        <v>2288.647504833426</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="T23" t="n">
-        <v>2288.647504833426</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="U23" t="n">
-        <v>2288.647504833426</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="V23" t="n">
-        <v>1946.540695536944</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="W23" t="n">
-        <v>1575.541660505232</v>
+        <v>1924.311670402436</v>
       </c>
       <c r="X23" t="n">
-        <v>1186.089055438289</v>
+        <v>1924.311670402436</v>
       </c>
       <c r="Y23" t="n">
-        <v>1186.089055438289</v>
+        <v>1527.820961323037</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>815.3191953951401</v>
+        <v>815.3191953951405</v>
       </c>
       <c r="C24" t="n">
-        <v>664.6649649552323</v>
+        <v>664.6649649552326</v>
       </c>
       <c r="D24" t="n">
-        <v>534.5759975767127</v>
+        <v>534.5759975767128</v>
       </c>
       <c r="E24" t="n">
-        <v>398.1295066876004</v>
+        <v>398.1295066876005</v>
       </c>
       <c r="F24" t="n">
         <v>273.6977005707322</v>
@@ -6065,25 +6065,25 @@
         <v>72.42079644788473</v>
       </c>
       <c r="I24" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J24" t="n">
-        <v>45.90621410868295</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K24" t="n">
-        <v>62.34477671089032</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L24" t="n">
-        <v>114.558104525034</v>
+        <v>1213.50461905326</v>
       </c>
       <c r="M24" t="n">
-        <v>682.6475041199856</v>
+        <v>1604.277195441311</v>
       </c>
       <c r="N24" t="n">
-        <v>1250.736903714937</v>
+        <v>1689.100925708144</v>
       </c>
       <c r="O24" t="n">
-        <v>1818.826303309888</v>
+        <v>2257.190325303096</v>
       </c>
       <c r="P24" t="n">
         <v>2295.310705434148</v>
@@ -6110,10 +6110,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X24" t="n">
-        <v>1146.429746760594</v>
+        <v>1146.429746760595</v>
       </c>
       <c r="Y24" t="n">
-        <v>967.1155298361015</v>
+        <v>967.1155298361018</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>852.326296294493</v>
+        <v>642.8334949731284</v>
       </c>
       <c r="C25" t="n">
-        <v>682.1211783604822</v>
+        <v>642.8334949731284</v>
       </c>
       <c r="D25" t="n">
-        <v>526.488065262997</v>
+        <v>642.8334949731284</v>
       </c>
       <c r="E25" t="n">
-        <v>370.9292531221995</v>
+        <v>487.2746828323309</v>
       </c>
       <c r="F25" t="n">
-        <v>213.6033183351724</v>
+        <v>329.9487480453039</v>
       </c>
       <c r="G25" t="n">
-        <v>45.90621410868295</v>
+        <v>162.2516438188144</v>
       </c>
       <c r="H25" t="n">
-        <v>45.90621410868295</v>
+        <v>162.2516438188144</v>
       </c>
       <c r="I25" t="n">
-        <v>45.90621410868295</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="J25" t="n">
-        <v>54.72522426270767</v>
+        <v>54.72522426270768</v>
       </c>
       <c r="K25" t="n">
         <v>199.9800133684946</v>
@@ -6171,28 +6171,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R25" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S25" t="n">
-        <v>1260.646376169151</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="T25" t="n">
-        <v>1260.646376169151</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="U25" t="n">
-        <v>1260.646376169151</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.646376169151</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.646376169151</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="X25" t="n">
-        <v>1260.646376169151</v>
+        <v>1031.541276918595</v>
       </c>
       <c r="Y25" t="n">
-        <v>1037.534314985794</v>
+        <v>828.0415136644297</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>439.0817156057524</v>
+        <v>1753.215854919359</v>
       </c>
       <c r="C26" t="n">
-        <v>45.90621410868296</v>
+        <v>1753.215854919359</v>
       </c>
       <c r="D26" t="n">
-        <v>45.90621410868296</v>
+        <v>1367.774726136027</v>
       </c>
       <c r="E26" t="n">
-        <v>45.90621410868296</v>
+        <v>965.1912012525715</v>
       </c>
       <c r="F26" t="n">
-        <v>45.90621410868296</v>
+        <v>548.2967627825493</v>
       </c>
       <c r="G26" t="n">
-        <v>45.90621410868296</v>
+        <v>136.375631030003</v>
       </c>
       <c r="H26" t="n">
-        <v>45.90621410868296</v>
+        <v>136.375631030003</v>
       </c>
       <c r="I26" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J26" t="n">
-        <v>45.90621410868296</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K26" t="n">
-        <v>507.8786136372626</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L26" t="n">
-        <v>1075.968013232214</v>
+        <v>1375.708128274174</v>
       </c>
       <c r="M26" t="n">
         <v>1644.057412827166</v>
@@ -6241,7 +6241,7 @@
         <v>2212.146812422117</v>
       </c>
       <c r="O26" t="n">
-        <v>2269.115175831894</v>
+        <v>2269.115175831893</v>
       </c>
       <c r="P26" t="n">
         <v>2295.310705434148</v>
@@ -6256,22 +6256,22 @@
         <v>2295.310705434148</v>
       </c>
       <c r="T26" t="n">
-        <v>2295.310705434148</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="U26" t="n">
-        <v>2295.310705434148</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="V26" t="n">
-        <v>1953.203896137667</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="W26" t="n">
-        <v>1582.204861105954</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="X26" t="n">
-        <v>1192.752256039011</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="Y26" t="n">
-        <v>839.5764613171493</v>
+        <v>1753.215854919359</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>398.1295066876005</v>
       </c>
       <c r="F27" t="n">
-        <v>273.6977005707322</v>
+        <v>273.6977005707321</v>
       </c>
       <c r="G27" t="n">
         <v>154.3022099210611</v>
       </c>
       <c r="H27" t="n">
-        <v>72.42079644788463</v>
+        <v>72.42079644788473</v>
       </c>
       <c r="I27" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J27" t="n">
-        <v>45.90621410868296</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K27" t="n">
-        <v>62.34477671089032</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L27" t="n">
-        <v>555.6651710981646</v>
+        <v>1213.50461905326</v>
       </c>
       <c r="M27" t="n">
-        <v>629.1776262256735</v>
+        <v>1587.292530453239</v>
       </c>
       <c r="N27" t="n">
-        <v>1197.267025820625</v>
+        <v>1672.116260720071</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.356425415577</v>
+        <v>2240.205660315023</v>
       </c>
       <c r="P27" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="Q27" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="R27" t="n">
         <v>2295.310705434148</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.6033183351724</v>
+        <v>798.4666080706136</v>
       </c>
       <c r="C28" t="n">
-        <v>213.6033183351724</v>
+        <v>798.4666080706136</v>
       </c>
       <c r="D28" t="n">
-        <v>213.6033183351724</v>
+        <v>642.8334949731284</v>
       </c>
       <c r="E28" t="n">
-        <v>213.6033183351724</v>
+        <v>487.2746828323309</v>
       </c>
       <c r="F28" t="n">
-        <v>213.6033183351724</v>
+        <v>329.9487480453039</v>
       </c>
       <c r="G28" t="n">
-        <v>45.90621410868296</v>
+        <v>162.2516438188144</v>
       </c>
       <c r="H28" t="n">
-        <v>45.90621410868296</v>
+        <v>162.2516438188144</v>
       </c>
       <c r="I28" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J28" t="n">
-        <v>54.72522426270768</v>
+        <v>54.72522426270767</v>
       </c>
       <c r="K28" t="n">
         <v>199.9800133684946</v>
@@ -6411,25 +6411,25 @@
         <v>1458.731569087767</v>
       </c>
       <c r="S28" t="n">
-        <v>1458.731569087767</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="T28" t="n">
-        <v>1282.401800485156</v>
+        <v>1032.28224136576</v>
       </c>
       <c r="U28" t="n">
-        <v>996.9933878001874</v>
+        <v>1032.28224136576</v>
       </c>
       <c r="V28" t="n">
-        <v>731.0140426210116</v>
+        <v>1032.28224136576</v>
       </c>
       <c r="W28" t="n">
-        <v>447.6836405521893</v>
+        <v>1032.28224136576</v>
       </c>
       <c r="X28" t="n">
-        <v>213.6033183351724</v>
+        <v>798.4666080706136</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.6033183351724</v>
+        <v>798.4666080706136</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1236.443976141631</v>
+        <v>1676.750565289162</v>
       </c>
       <c r="C29" t="n">
-        <v>843.2684746445616</v>
+        <v>1676.750565289162</v>
       </c>
       <c r="D29" t="n">
-        <v>457.8273458612293</v>
+        <v>1676.750565289162</v>
       </c>
       <c r="E29" t="n">
-        <v>457.8273458612293</v>
+        <v>1274.167040405707</v>
       </c>
       <c r="F29" t="n">
-        <v>457.8273458612293</v>
+        <v>857.2726019356843</v>
       </c>
       <c r="G29" t="n">
-        <v>45.90621410868296</v>
+        <v>445.351470183138</v>
       </c>
       <c r="H29" t="n">
-        <v>45.90621410868296</v>
+        <v>136.375631030003</v>
       </c>
       <c r="I29" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J29" t="n">
-        <v>45.90621410868296</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K29" t="n">
-        <v>59.07460320644365</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L29" t="n">
-        <v>99.39729951849274</v>
+        <v>847.9414249912711</v>
       </c>
       <c r="M29" t="n">
-        <v>667.4866991134444</v>
+        <v>913.3933283288953</v>
       </c>
       <c r="N29" t="n">
-        <v>1235.576098708396</v>
+        <v>982.9032873366219</v>
       </c>
       <c r="O29" t="n">
-        <v>1772.129250931856</v>
+        <v>1416.665302659561</v>
       </c>
       <c r="P29" t="n">
-        <v>2295.310705434148</v>
+        <v>1939.846757161853</v>
       </c>
       <c r="Q29" t="n">
-        <v>2295.310705434148</v>
+        <v>2256.105495240869</v>
       </c>
       <c r="R29" t="n">
         <v>2295.310705434148</v>
@@ -6493,22 +6493,22 @@
         <v>2295.310705434148</v>
       </c>
       <c r="T29" t="n">
-        <v>2295.310705434148</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="U29" t="n">
-        <v>2295.310705434148</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="V29" t="n">
-        <v>2295.310705434148</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="W29" t="n">
-        <v>2295.310705434148</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="X29" t="n">
-        <v>2033.429430932427</v>
+        <v>2077.245311000559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1636.938721853028</v>
+        <v>2077.245311000559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>815.3191953951401</v>
+        <v>815.3191953951402</v>
       </c>
       <c r="C30" t="n">
-        <v>664.6649649552323</v>
+        <v>664.6649649552324</v>
       </c>
       <c r="D30" t="n">
-        <v>534.5759975767127</v>
+        <v>534.5759975767128</v>
       </c>
       <c r="E30" t="n">
-        <v>398.1295066876004</v>
+        <v>398.1295066876005</v>
       </c>
       <c r="F30" t="n">
-        <v>273.6977005707322</v>
+        <v>273.6977005707323</v>
       </c>
       <c r="G30" t="n">
-        <v>154.3022099210611</v>
+        <v>154.3022099210612</v>
       </c>
       <c r="H30" t="n">
         <v>72.42079644788473</v>
       </c>
       <c r="I30" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J30" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="K30" t="n">
-        <v>153.3630907312972</v>
+        <v>62.34477671089032</v>
       </c>
       <c r="L30" t="n">
-        <v>721.4524903262488</v>
+        <v>630.4341763058418</v>
       </c>
       <c r="M30" t="n">
-        <v>794.9649454537578</v>
+        <v>1198.523575900793</v>
       </c>
       <c r="N30" t="n">
-        <v>879.7886757205904</v>
+        <v>1766.612975495745</v>
       </c>
       <c r="O30" t="n">
-        <v>1447.878075315542</v>
+        <v>2257.190325303095</v>
       </c>
       <c r="P30" t="n">
-        <v>1977.832355334114</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="Q30" t="n">
         <v>2295.310705434148</v>
@@ -6587,7 +6587,7 @@
         <v>1146.429746760594</v>
       </c>
       <c r="Y30" t="n">
-        <v>967.1155298361015</v>
+        <v>967.1155298361016</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>201.5393272061682</v>
+        <v>490.1334809314504</v>
       </c>
       <c r="C31" t="n">
-        <v>201.5393272061682</v>
+        <v>319.9283629974396</v>
       </c>
       <c r="D31" t="n">
-        <v>45.90621410868296</v>
+        <v>203.23214889571</v>
       </c>
       <c r="E31" t="n">
-        <v>45.90621410868296</v>
+        <v>203.23214889571</v>
       </c>
       <c r="F31" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="G31" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="H31" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I31" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J31" t="n">
-        <v>54.72522426270768</v>
+        <v>54.72522426270767</v>
       </c>
       <c r="K31" t="n">
         <v>199.9800133684946</v>
@@ -6645,28 +6645,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S31" t="n">
-        <v>1166.763092385693</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="T31" t="n">
-        <v>933.4237346158411</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="U31" t="n">
-        <v>648.0153219308729</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="V31" t="n">
-        <v>382.0359767516971</v>
+        <v>1192.752223908591</v>
       </c>
       <c r="W31" t="n">
-        <v>382.0359767516971</v>
+        <v>909.4218218397687</v>
       </c>
       <c r="X31" t="n">
-        <v>201.5393272061682</v>
+        <v>675.3414996227517</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.5393272061682</v>
+        <v>675.3414996227517</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1569.926950066267</v>
+        <v>950.8802876660047</v>
       </c>
       <c r="C32" t="n">
-        <v>1176.751448569198</v>
+        <v>950.8802876660047</v>
       </c>
       <c r="D32" t="n">
-        <v>1176.751448569198</v>
+        <v>950.8802876660047</v>
       </c>
       <c r="E32" t="n">
-        <v>774.1679236857422</v>
+        <v>548.2967627825493</v>
       </c>
       <c r="F32" t="n">
-        <v>357.2734852157199</v>
+        <v>548.2967627825493</v>
       </c>
       <c r="G32" t="n">
-        <v>357.2734852157199</v>
+        <v>136.375631030003</v>
       </c>
       <c r="H32" t="n">
-        <v>45.90621410868296</v>
+        <v>136.375631030003</v>
       </c>
       <c r="I32" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J32" t="n">
-        <v>45.90621410868296</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K32" t="n">
-        <v>174.7119038199853</v>
+        <v>460.1898635161368</v>
       </c>
       <c r="L32" t="n">
-        <v>215.0346001320344</v>
+        <v>1028.279263111088</v>
       </c>
       <c r="M32" t="n">
-        <v>280.4865034696586</v>
+        <v>1093.731166448712</v>
       </c>
       <c r="N32" t="n">
-        <v>848.5759030646102</v>
+        <v>1661.820566043664</v>
       </c>
       <c r="O32" t="n">
-        <v>1416.665302659562</v>
+        <v>2229.909965638615</v>
       </c>
       <c r="P32" t="n">
-        <v>1939.846757161854</v>
+        <v>2256.105495240869</v>
       </c>
       <c r="Q32" t="n">
-        <v>2256.10549524087</v>
+        <v>2256.105495240869</v>
       </c>
       <c r="R32" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="S32" t="n">
-        <v>2295.310705434148</v>
+        <v>2157.090651793676</v>
       </c>
       <c r="T32" t="n">
-        <v>2077.245311000559</v>
+        <v>1939.025257360088</v>
       </c>
       <c r="U32" t="n">
-        <v>1966.417659145666</v>
+        <v>1747.8657424568</v>
       </c>
       <c r="V32" t="n">
-        <v>1966.417659145666</v>
+        <v>1747.8657424568</v>
       </c>
       <c r="W32" t="n">
-        <v>1966.417659145666</v>
+        <v>1747.8657424568</v>
       </c>
       <c r="X32" t="n">
-        <v>1966.417659145666</v>
+        <v>1747.8657424568</v>
       </c>
       <c r="Y32" t="n">
-        <v>1569.926950066267</v>
+        <v>1351.375033377402</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>815.3191953951405</v>
+        <v>815.3191953951401</v>
       </c>
       <c r="C33" t="n">
-        <v>664.6649649552326</v>
+        <v>664.6649649552323</v>
       </c>
       <c r="D33" t="n">
-        <v>534.5759975767128</v>
+        <v>534.5759975767127</v>
       </c>
       <c r="E33" t="n">
-        <v>398.1295066876005</v>
+        <v>398.1295066876004</v>
       </c>
       <c r="F33" t="n">
         <v>273.6977005707322</v>
@@ -6773,28 +6773,28 @@
         <v>154.3022099210611</v>
       </c>
       <c r="H33" t="n">
-        <v>72.42079644788464</v>
+        <v>72.42079644788473</v>
       </c>
       <c r="I33" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J33" t="n">
-        <v>220.5365448138743</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="K33" t="n">
-        <v>645.4152194583081</v>
+        <v>62.34477671089032</v>
       </c>
       <c r="L33" t="n">
-        <v>1213.50461905326</v>
+        <v>114.558104525034</v>
       </c>
       <c r="M33" t="n">
-        <v>1287.017074180769</v>
+        <v>629.1776262256734</v>
       </c>
       <c r="N33" t="n">
-        <v>1689.100925708144</v>
+        <v>1197.267025820625</v>
       </c>
       <c r="O33" t="n">
-        <v>2257.190325303096</v>
+        <v>1765.356425415576</v>
       </c>
       <c r="P33" t="n">
         <v>2295.310705434148</v>
@@ -6821,10 +6821,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X33" t="n">
-        <v>1146.429746760595</v>
+        <v>1146.429746760594</v>
       </c>
       <c r="Y33" t="n">
-        <v>967.1155298361018</v>
+        <v>967.1155298361015</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>677.8300193991593</v>
+        <v>539.4415493666685</v>
       </c>
       <c r="C34" t="n">
-        <v>507.6249014651485</v>
+        <v>369.2364314326577</v>
       </c>
       <c r="D34" t="n">
-        <v>351.9917883676633</v>
+        <v>213.6033183351724</v>
       </c>
       <c r="E34" t="n">
-        <v>196.4329762268658</v>
+        <v>213.6033183351724</v>
       </c>
       <c r="F34" t="n">
-        <v>196.4329762268658</v>
+        <v>213.6033183351724</v>
       </c>
       <c r="G34" t="n">
-        <v>196.4329762268658</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="H34" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I34" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J34" t="n">
-        <v>54.72522426270768</v>
+        <v>54.72522426270767</v>
       </c>
       <c r="K34" t="n">
         <v>199.9800133684946</v>
@@ -6882,28 +6882,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R34" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S34" t="n">
-        <v>1359.873062337847</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="T34" t="n">
-        <v>1126.533704567996</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="U34" t="n">
-        <v>1126.533704567996</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="V34" t="n">
-        <v>1126.533704567996</v>
+        <v>1231.092031310149</v>
       </c>
       <c r="W34" t="n">
-        <v>1126.533704567996</v>
+        <v>947.7616292413264</v>
       </c>
       <c r="X34" t="n">
-        <v>1086.150099273817</v>
+        <v>947.7616292413264</v>
       </c>
       <c r="Y34" t="n">
-        <v>863.0380380904605</v>
+        <v>724.6495680579698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1821.591911335914</v>
+        <v>654.0374566871421</v>
       </c>
       <c r="C35" t="n">
-        <v>1662.746437998039</v>
+        <v>431.3473428920152</v>
       </c>
       <c r="D35" t="n">
-        <v>1277.305309214707</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="E35" t="n">
-        <v>874.7217843312515</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="F35" t="n">
-        <v>457.8273458612293</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="G35" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="H35" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I35" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J35" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="K35" t="n">
-        <v>559.6847783813506</v>
+        <v>59.07460320644365</v>
       </c>
       <c r="L35" t="n">
-        <v>1127.774177976302</v>
+        <v>627.1640028013951</v>
       </c>
       <c r="M35" t="n">
-        <v>1193.226081313926</v>
+        <v>1195.253402396347</v>
       </c>
       <c r="N35" t="n">
-        <v>1701.025776236942</v>
+        <v>1763.342801991298</v>
       </c>
       <c r="O35" t="n">
-        <v>2269.115175831894</v>
+        <v>1820.311165401075</v>
       </c>
       <c r="P35" t="n">
-        <v>2295.310705434148</v>
+        <v>1939.846757161853</v>
       </c>
       <c r="Q35" t="n">
-        <v>2295.310705434148</v>
+        <v>2256.105495240869</v>
       </c>
       <c r="R35" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="S35" t="n">
-        <v>2295.310705434148</v>
+        <v>2157.090651793676</v>
       </c>
       <c r="T35" t="n">
-        <v>2077.245311000559</v>
+        <v>2157.090651793676</v>
       </c>
       <c r="U35" t="n">
-        <v>1821.591911335914</v>
+        <v>2157.090651793676</v>
       </c>
       <c r="V35" t="n">
-        <v>1821.591911335914</v>
+        <v>1814.983842497195</v>
       </c>
       <c r="W35" t="n">
-        <v>1821.591911335914</v>
+        <v>1443.984807465482</v>
       </c>
       <c r="X35" t="n">
-        <v>1821.591911335914</v>
+        <v>1054.532202398539</v>
       </c>
       <c r="Y35" t="n">
-        <v>1821.591911335914</v>
+        <v>1054.532202398539</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>815.3191953951407</v>
+        <v>815.3191953951401</v>
       </c>
       <c r="C36" t="n">
-        <v>664.6649649552329</v>
+        <v>664.6649649552323</v>
       </c>
       <c r="D36" t="n">
-        <v>534.5759975767132</v>
+        <v>534.5759975767127</v>
       </c>
       <c r="E36" t="n">
-        <v>398.129506687601</v>
+        <v>398.1295066876004</v>
       </c>
       <c r="F36" t="n">
-        <v>273.6977005707328</v>
+        <v>273.6977005707322</v>
       </c>
       <c r="G36" t="n">
-        <v>154.3022099210617</v>
+        <v>154.3022099210611</v>
       </c>
       <c r="H36" t="n">
-        <v>72.42079644788534</v>
+        <v>72.42079644788473</v>
       </c>
       <c r="I36" t="n">
-        <v>45.90621410868357</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J36" t="n">
-        <v>45.90621410868357</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K36" t="n">
-        <v>62.34477671089093</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L36" t="n">
-        <v>630.4341763058426</v>
+        <v>1209.402950278949</v>
       </c>
       <c r="M36" t="n">
-        <v>794.9649454537578</v>
+        <v>1282.915405406458</v>
       </c>
       <c r="N36" t="n">
-        <v>879.7886757205904</v>
+        <v>1367.73913567329</v>
       </c>
       <c r="O36" t="n">
-        <v>1447.878075315542</v>
+        <v>1430.893410327469</v>
       </c>
       <c r="P36" t="n">
-        <v>1977.832355334114</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q36" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="R36" t="n">
         <v>2295.310705434148</v>
@@ -7058,10 +7058,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X36" t="n">
-        <v>1146.429746760595</v>
+        <v>1146.429746760594</v>
       </c>
       <c r="Y36" t="n">
-        <v>967.115529836102</v>
+        <v>967.1155298361015</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>528.9960789705183</v>
+        <v>1119.198488122807</v>
       </c>
       <c r="C37" t="n">
-        <v>358.7909610365075</v>
+        <v>948.9933701887965</v>
       </c>
       <c r="D37" t="n">
-        <v>358.7909610365075</v>
+        <v>793.3602570913113</v>
       </c>
       <c r="E37" t="n">
-        <v>203.23214889571</v>
+        <v>637.8014449505138</v>
       </c>
       <c r="F37" t="n">
-        <v>45.90621410868296</v>
+        <v>480.4755101634867</v>
       </c>
       <c r="G37" t="n">
-        <v>45.90621410868296</v>
+        <v>312.7784059369972</v>
       </c>
       <c r="H37" t="n">
-        <v>45.90621410868296</v>
+        <v>162.2516438188144</v>
       </c>
       <c r="I37" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J37" t="n">
-        <v>54.72522426270768</v>
+        <v>54.72522426270767</v>
       </c>
       <c r="K37" t="n">
         <v>199.9800133684946</v>
@@ -7122,25 +7122,25 @@
         <v>1458.731569087767</v>
       </c>
       <c r="S37" t="n">
-        <v>1458.731569087767</v>
+        <v>1304.406506814109</v>
       </c>
       <c r="T37" t="n">
-        <v>1458.731569087767</v>
+        <v>1304.406506814109</v>
       </c>
       <c r="U37" t="n">
-        <v>1458.731569087767</v>
+        <v>1304.406506814109</v>
       </c>
       <c r="V37" t="n">
-        <v>1192.752223908591</v>
+        <v>1304.406506814109</v>
       </c>
       <c r="W37" t="n">
-        <v>1171.396481062193</v>
+        <v>1304.406506814109</v>
       </c>
       <c r="X37" t="n">
-        <v>937.3161588451762</v>
+        <v>1304.406506814109</v>
       </c>
       <c r="Y37" t="n">
-        <v>714.2040976618196</v>
+        <v>1304.406506814109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>841.6652404892079</v>
+        <v>536.6041106629682</v>
       </c>
       <c r="C38" t="n">
-        <v>448.4897389921384</v>
+        <v>143.4286091658988</v>
       </c>
       <c r="D38" t="n">
-        <v>448.4897389921384</v>
+        <v>143.4286091658988</v>
       </c>
       <c r="E38" t="n">
-        <v>45.90621410868296</v>
+        <v>143.4286091658988</v>
       </c>
       <c r="F38" t="n">
-        <v>45.90621410868296</v>
+        <v>143.4286091658988</v>
       </c>
       <c r="G38" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="H38" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I38" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J38" t="n">
-        <v>45.90621410868296</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K38" t="n">
-        <v>59.07460320644365</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L38" t="n">
-        <v>99.39729951849274</v>
+        <v>1375.708128274174</v>
       </c>
       <c r="M38" t="n">
-        <v>667.4866991134444</v>
+        <v>1441.160031611798</v>
       </c>
       <c r="N38" t="n">
-        <v>887.7811132578884</v>
+        <v>1675.955677328801</v>
       </c>
       <c r="O38" t="n">
-        <v>1455.87051285284</v>
+        <v>1732.924040738577</v>
       </c>
       <c r="P38" t="n">
-        <v>1979.051967355132</v>
+        <v>2256.105495240869</v>
       </c>
       <c r="Q38" t="n">
-        <v>2295.310705434148</v>
+        <v>2256.105495240869</v>
       </c>
       <c r="R38" t="n">
         <v>2295.310705434148</v>
       </c>
       <c r="S38" t="n">
-        <v>2157.090651793677</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="T38" t="n">
-        <v>2157.090651793677</v>
+        <v>2295.310705434148</v>
       </c>
       <c r="U38" t="n">
-        <v>1901.437252129032</v>
+        <v>2039.657305769502</v>
       </c>
       <c r="V38" t="n">
-        <v>1559.33044283255</v>
+        <v>1697.550496473021</v>
       </c>
       <c r="W38" t="n">
-        <v>1238.155949568607</v>
+        <v>1326.551461441308</v>
       </c>
       <c r="X38" t="n">
-        <v>1238.155949568607</v>
+        <v>937.098856374365</v>
       </c>
       <c r="Y38" t="n">
-        <v>841.6652404892079</v>
+        <v>937.098856374365</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>72.42079644788473</v>
       </c>
       <c r="I39" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J39" t="n">
-        <v>45.90621410868296</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K39" t="n">
-        <v>62.34477671089032</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L39" t="n">
-        <v>114.558104525034</v>
+        <v>1209.402950278949</v>
       </c>
       <c r="M39" t="n">
-        <v>311.6992761256388</v>
+        <v>1282.915405406458</v>
       </c>
       <c r="N39" t="n">
-        <v>879.7886757205904</v>
+        <v>1367.73913567329</v>
       </c>
       <c r="O39" t="n">
-        <v>1447.878075315542</v>
+        <v>1430.893410327469</v>
       </c>
       <c r="P39" t="n">
-        <v>1977.832355334114</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q39" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="R39" t="n">
         <v>2295.310705434148</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1324.669011196692</v>
+        <v>1002.853058412676</v>
       </c>
       <c r="C40" t="n">
-        <v>1154.463893262681</v>
+        <v>832.6479404786651</v>
       </c>
       <c r="D40" t="n">
-        <v>998.8307801651958</v>
+        <v>677.0148273811798</v>
       </c>
       <c r="E40" t="n">
-        <v>998.8307801651958</v>
+        <v>521.4560152403823</v>
       </c>
       <c r="F40" t="n">
-        <v>998.8307801651958</v>
+        <v>364.1300804533552</v>
       </c>
       <c r="G40" t="n">
-        <v>998.8307801651958</v>
+        <v>196.4329762268657</v>
       </c>
       <c r="H40" t="n">
-        <v>998.8307801651958</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="I40" t="n">
-        <v>882.4853504550643</v>
+        <v>45.90621410868295</v>
       </c>
       <c r="J40" t="n">
-        <v>891.304360609089</v>
+        <v>54.72522426270767</v>
       </c>
       <c r="K40" t="n">
-        <v>1036.559149714876</v>
+        <v>199.9800133684946</v>
       </c>
       <c r="L40" t="n">
-        <v>1281.842232368335</v>
+        <v>445.263096021954</v>
       </c>
       <c r="M40" t="n">
-        <v>1553.700846285031</v>
+        <v>717.1217099386497</v>
       </c>
       <c r="N40" t="n">
-        <v>1820.422923040345</v>
+        <v>983.8437866939637</v>
       </c>
       <c r="O40" t="n">
-        <v>2060.283421055402</v>
+        <v>1223.704284709021</v>
       </c>
       <c r="P40" t="n">
-        <v>2246.179643744087</v>
+        <v>1409.600507397706</v>
       </c>
       <c r="Q40" t="n">
-        <v>2295.310705434148</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="R40" t="n">
-        <v>2295.310705434148</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S40" t="n">
-        <v>2102.200735481993</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="T40" t="n">
-        <v>2102.200735481993</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="U40" t="n">
-        <v>2102.200735481993</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="V40" t="n">
-        <v>2102.200735481993</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="W40" t="n">
-        <v>1967.069413288367</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="X40" t="n">
-        <v>1732.98909107135</v>
+        <v>1265.621599135612</v>
       </c>
       <c r="Y40" t="n">
-        <v>1509.877029887993</v>
+        <v>1188.061077103977</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1181.710115394557</v>
+        <v>1552.70915042627</v>
       </c>
       <c r="C41" t="n">
-        <v>1181.710115394557</v>
+        <v>1159.533648929201</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.710115394557</v>
+        <v>774.0925201458683</v>
       </c>
       <c r="E41" t="n">
-        <v>1181.710115394557</v>
+        <v>371.5089952624128</v>
       </c>
       <c r="F41" t="n">
-        <v>764.8156769245348</v>
+        <v>371.5089952624128</v>
       </c>
       <c r="G41" t="n">
-        <v>447.74290213704</v>
+        <v>357.2734852157199</v>
       </c>
       <c r="H41" t="n">
-        <v>136.375631030003</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="I41" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="J41" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="K41" t="n">
-        <v>59.07460320644365</v>
+        <v>559.6847783813506</v>
       </c>
       <c r="L41" t="n">
-        <v>99.39729951849274</v>
+        <v>752.8192509125379</v>
       </c>
       <c r="M41" t="n">
-        <v>667.4866991134444</v>
+        <v>818.2711542501621</v>
       </c>
       <c r="N41" t="n">
-        <v>1235.576098708396</v>
+        <v>887.7811132578887</v>
       </c>
       <c r="O41" t="n">
-        <v>1803.665498303347</v>
+        <v>1455.87051285284</v>
       </c>
       <c r="P41" t="n">
-        <v>1979.051967355132</v>
+        <v>1979.051967355133</v>
       </c>
       <c r="Q41" t="n">
-        <v>2295.310705434148</v>
+        <v>2295.310705434149</v>
       </c>
       <c r="R41" t="n">
-        <v>2295.310705434148</v>
+        <v>2295.310705434149</v>
       </c>
       <c r="S41" t="n">
-        <v>2295.310705434148</v>
+        <v>2295.310705434149</v>
       </c>
       <c r="T41" t="n">
-        <v>2295.310705434148</v>
+        <v>2295.310705434149</v>
       </c>
       <c r="U41" t="n">
-        <v>2295.310705434148</v>
+        <v>2295.310705434149</v>
       </c>
       <c r="V41" t="n">
         <v>1953.203896137667</v>
       </c>
       <c r="W41" t="n">
-        <v>1582.204861105954</v>
+        <v>1953.203896137667</v>
       </c>
       <c r="X41" t="n">
-        <v>1582.204861105954</v>
+        <v>1953.203896137667</v>
       </c>
       <c r="Y41" t="n">
-        <v>1582.204861105954</v>
+        <v>1953.203896137667</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>154.3022099210611</v>
       </c>
       <c r="H42" t="n">
-        <v>72.42079644788473</v>
+        <v>72.42079644788474</v>
       </c>
       <c r="I42" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="J42" t="n">
-        <v>45.90621410868296</v>
+        <v>216.4348760395633</v>
       </c>
       <c r="K42" t="n">
-        <v>62.34477671089032</v>
+        <v>641.3135506839971</v>
       </c>
       <c r="L42" t="n">
-        <v>114.558104525034</v>
+        <v>1209.402950278949</v>
       </c>
       <c r="M42" t="n">
-        <v>311.6992761256383</v>
+        <v>1282.915405406458</v>
       </c>
       <c r="N42" t="n">
-        <v>879.7886757205899</v>
+        <v>1367.73913567329</v>
       </c>
       <c r="O42" t="n">
-        <v>1447.878075315542</v>
+        <v>1430.893410327469</v>
       </c>
       <c r="P42" t="n">
-        <v>1977.832355334113</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q42" t="n">
-        <v>2295.310705434148</v>
+        <v>2278.326040446075</v>
       </c>
       <c r="R42" t="n">
         <v>2295.310705434148</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>832.6479404786651</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="C43" t="n">
-        <v>832.6479404786651</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="D43" t="n">
-        <v>677.0148273811799</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="E43" t="n">
-        <v>521.4560152403824</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="F43" t="n">
-        <v>364.1300804533553</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="G43" t="n">
-        <v>196.4329762268658</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="H43" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="I43" t="n">
-        <v>45.90621410868296</v>
+        <v>45.90621410868297</v>
       </c>
       <c r="J43" t="n">
-        <v>54.72522426270768</v>
+        <v>54.72522426270769</v>
       </c>
       <c r="K43" t="n">
         <v>199.9800133684946</v>
@@ -7599,22 +7599,22 @@
         <v>1458.731569087767</v>
       </c>
       <c r="T43" t="n">
-        <v>1283.835304349142</v>
+        <v>1337.816757442023</v>
       </c>
       <c r="U43" t="n">
-        <v>1283.835304349142</v>
+        <v>1052.408344757055</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.855959169966</v>
+        <v>786.4289995778788</v>
       </c>
       <c r="W43" t="n">
-        <v>1017.855959169966</v>
+        <v>503.0985975090565</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.855959169966</v>
+        <v>269.0182752920396</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.855959169966</v>
+        <v>45.90621410868297</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1756.59590608228</v>
+        <v>658.0414933191407</v>
       </c>
       <c r="C44" t="n">
-        <v>1363.42040458521</v>
+        <v>658.0414933191407</v>
       </c>
       <c r="D44" t="n">
-        <v>1363.42040458521</v>
+        <v>272.6003645358085</v>
       </c>
       <c r="E44" t="n">
-        <v>960.8368797017549</v>
+        <v>272.6003645358085</v>
       </c>
       <c r="F44" t="n">
-        <v>543.9424412317327</v>
+        <v>272.6003645358085</v>
       </c>
       <c r="G44" t="n">
-        <v>132.0213094791864</v>
+        <v>272.6003645358085</v>
       </c>
       <c r="H44" t="n">
-        <v>132.0213094791864</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I44" t="n">
         <v>45.90621410868296</v>
       </c>
       <c r="J44" t="n">
-        <v>45.90621410868296</v>
+        <v>293.8401644065544</v>
       </c>
       <c r="K44" t="n">
-        <v>59.07460320644365</v>
+        <v>807.618728679222</v>
       </c>
       <c r="L44" t="n">
-        <v>627.1640028013952</v>
+        <v>847.9414249912711</v>
       </c>
       <c r="M44" t="n">
-        <v>1195.253402396347</v>
+        <v>913.3933283288953</v>
       </c>
       <c r="N44" t="n">
-        <v>1715.16088752208</v>
+        <v>982.9032873366219</v>
       </c>
       <c r="O44" t="n">
-        <v>1772.129250931856</v>
+        <v>1416.665302659562</v>
       </c>
       <c r="P44" t="n">
-        <v>2295.310705434148</v>
+        <v>1939.846757161854</v>
       </c>
       <c r="Q44" t="n">
-        <v>2295.310705434148</v>
+        <v>2256.10549524087</v>
       </c>
       <c r="R44" t="n">
         <v>2295.310705434148</v>
@@ -7684,16 +7684,16 @@
         <v>2157.090651793677</v>
       </c>
       <c r="V44" t="n">
-        <v>2157.090651793677</v>
+        <v>1814.983842497195</v>
       </c>
       <c r="W44" t="n">
-        <v>2157.090651793677</v>
+        <v>1443.984807465483</v>
       </c>
       <c r="X44" t="n">
-        <v>2157.090651793677</v>
+        <v>1054.53220239854</v>
       </c>
       <c r="Y44" t="n">
-        <v>2157.090651793677</v>
+        <v>658.0414933191407</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>815.3191953951401</v>
+        <v>815.3191953951405</v>
       </c>
       <c r="C45" t="n">
-        <v>664.6649649552323</v>
+        <v>664.6649649552326</v>
       </c>
       <c r="D45" t="n">
-        <v>534.5759975767127</v>
+        <v>534.5759975767128</v>
       </c>
       <c r="E45" t="n">
-        <v>398.1295066876004</v>
+        <v>398.1295066876005</v>
       </c>
       <c r="F45" t="n">
         <v>273.6977005707322</v>
@@ -7721,34 +7721,34 @@
         <v>154.3022099210611</v>
       </c>
       <c r="H45" t="n">
-        <v>72.42079644788473</v>
+        <v>72.42079644788464</v>
       </c>
       <c r="I45" t="n">
         <v>45.90621410868296</v>
       </c>
       <c r="J45" t="n">
-        <v>45.90621410868296</v>
+        <v>220.5365448138743</v>
       </c>
       <c r="K45" t="n">
-        <v>470.7848887531167</v>
+        <v>645.4152194583081</v>
       </c>
       <c r="L45" t="n">
-        <v>1038.874288348068</v>
+        <v>1209.402950278949</v>
       </c>
       <c r="M45" t="n">
-        <v>1112.386743475577</v>
+        <v>1282.915405406458</v>
       </c>
       <c r="N45" t="n">
-        <v>1672.116260720071</v>
+        <v>1367.739135673291</v>
       </c>
       <c r="O45" t="n">
-        <v>2240.205660315023</v>
+        <v>1430.89341032747</v>
       </c>
       <c r="P45" t="n">
-        <v>2278.326040446075</v>
+        <v>1960.847690346041</v>
       </c>
       <c r="Q45" t="n">
-        <v>2278.326040446075</v>
+        <v>2278.326040446076</v>
       </c>
       <c r="R45" t="n">
         <v>2295.310705434148</v>
@@ -7769,10 +7769,10 @@
         <v>1335.736824410583</v>
       </c>
       <c r="X45" t="n">
-        <v>1146.429746760594</v>
+        <v>1146.429746760595</v>
       </c>
       <c r="Y45" t="n">
-        <v>967.1155298361015</v>
+        <v>967.1155298361018</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>793.3602570913113</v>
+        <v>523.9640289479037</v>
       </c>
       <c r="C46" t="n">
-        <v>793.3602570913113</v>
+        <v>353.7589110138928</v>
       </c>
       <c r="D46" t="n">
-        <v>793.3602570913113</v>
+        <v>353.7589110138928</v>
       </c>
       <c r="E46" t="n">
-        <v>637.8014449505138</v>
+        <v>353.7589110138928</v>
       </c>
       <c r="F46" t="n">
-        <v>480.4755101634867</v>
+        <v>196.4329762268658</v>
       </c>
       <c r="G46" t="n">
-        <v>312.7784059369972</v>
+        <v>196.4329762268658</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2516438188144</v>
+        <v>45.90621410868296</v>
       </c>
       <c r="I46" t="n">
         <v>45.90621410868296</v>
@@ -7830,28 +7830,28 @@
         <v>1458.731569087767</v>
       </c>
       <c r="R46" t="n">
-        <v>1359.873062337847</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="S46" t="n">
-        <v>1166.763092385693</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="T46" t="n">
-        <v>1166.763092385693</v>
+        <v>1458.731569087767</v>
       </c>
       <c r="U46" t="n">
-        <v>1166.763092385693</v>
+        <v>1307.354098412919</v>
       </c>
       <c r="V46" t="n">
-        <v>900.7837472065172</v>
+        <v>1041.374753233743</v>
       </c>
       <c r="W46" t="n">
-        <v>793.3602570913113</v>
+        <v>758.0443511649206</v>
       </c>
       <c r="X46" t="n">
-        <v>793.3602570913113</v>
+        <v>523.9640289479037</v>
       </c>
       <c r="Y46" t="n">
-        <v>793.3602570913113</v>
+        <v>523.9640289479037</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7990,13 +7990,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>231.5084000173687</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>290.1439722474736</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8060,7 +8060,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6267661036674</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8072,13 +8072,13 @@
         <v>659.1997892127036</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>87.10795211885011</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8227,16 +8227,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>324.2883078565674</v>
+        <v>418.2210870284275</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>203.8790804305735</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>666.2147984078489</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>659.1997892127036</v>
+        <v>659.1997892127035</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>218.8576773524831</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>524.2180692050804</v>
+        <v>511.0009948676262</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>270.6472576886336</v>
+        <v>666.2147984078488</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>659.1997892127035</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>201.3655099165548</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8695,7 +8695,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>533.0976800837399</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>420.200870814587</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>218.3145761602988</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>62.9163925843997</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>20.30774169145049</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>499.5726711792349</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>72.01071156809152</v>
       </c>
       <c r="O12" t="n">
-        <v>422.8081451273379</v>
+        <v>510.0354797381543</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>94.28289106921648</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>533.0976800837398</v>
+        <v>374.890990460478</v>
       </c>
       <c r="M14" t="n">
         <v>507.714642684169</v>
       </c>
       <c r="N14" t="n">
-        <v>503.6155965527525</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>516.943841420704</v>
       </c>
       <c r="M15" t="n">
-        <v>24.06458894322887</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>510.0354797381543</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9029,7 +9029,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>459.0460422102105</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>533.0976800837398</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>507.714642684169</v>
       </c>
       <c r="N17" t="n">
         <v>503.6155965527525</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>376.9422375187428</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>62.9163925843997</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>521.0869411927351</v>
+        <v>516.943841420704</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.7028151289511</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>510.0354797381543</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.03536674667771</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>533.0976800837399</v>
+        <v>533.09768008374</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>192.2785713307248</v>
       </c>
       <c r="N20" t="n">
-        <v>137.5415243650609</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>516.2838749345203</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>11.7581146425664</v>
       </c>
       <c r="R20" t="n">
         <v>62.9163925843997</v>
@@ -9479,31 +9479,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>521.0869411927351</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>8.711901654156776</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>488.1471407354736</v>
+        <v>6.908361682550108</v>
       </c>
       <c r="O21" t="n">
-        <v>510.0354797381543</v>
+        <v>510.0354797381544</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.03536674667771</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>133.8841134866692</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>533.0976800837398</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>507.714642684169</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>503.6155965527525</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>420.2008708145875</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>521.0869411927353</v>
       </c>
       <c r="M24" t="n">
-        <v>499.5726711792349</v>
+        <v>320.4647689500429</v>
       </c>
       <c r="N24" t="n">
-        <v>488.1471407354736</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>510.0354797381542</v>
+        <v>510.0354797381544</v>
       </c>
       <c r="P24" t="n">
-        <v>442.7919414072795</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>7.03536674667771</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>453.3373842735544</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>533.09768008374</v>
+        <v>533.0976800837399</v>
       </c>
       <c r="M26" t="n">
-        <v>507.7146426841692</v>
+        <v>204.9468497124927</v>
       </c>
       <c r="N26" t="n">
-        <v>503.6155965527527</v>
+        <v>503.6155965527525</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>445.5626935082127</v>
+        <v>521.0869411927351</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>303.3085416893638</v>
       </c>
       <c r="N27" t="n">
-        <v>488.1471407354737</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>510.0354797381544</v>
+        <v>510.0354797381543</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>7.03536674667771</v>
       </c>
       <c r="R27" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>507.7146426841691</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>503.6155965527526</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>484.4290796097815</v>
+        <v>380.5996483971343</v>
       </c>
       <c r="P29" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>62.9163925843997</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>20.30774169145049</v>
       </c>
       <c r="K30" t="n">
-        <v>91.93769092970396</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>521.0869411927354</v>
+        <v>521.0869411927351</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>499.5726711792349</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>488.1471407354736</v>
       </c>
       <c r="O30" t="n">
-        <v>510.0354797381544</v>
+        <v>431.7404799526985</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>7.03536674667771</v>
       </c>
       <c r="R30" t="n">
         <v>53.8575776449813</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>116.8053541550925</v>
+        <v>154.7285959715371</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>533.0976800837398</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>503.6155965527527</v>
+        <v>503.6155965527525</v>
       </c>
       <c r="O32" t="n">
         <v>516.2838749345203</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>11.7581146425664</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>20.30774169145049</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>521.0869411927353</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>445.5626935082125</v>
       </c>
       <c r="N33" t="n">
-        <v>320.4647689500429</v>
+        <v>488.1471407354736</v>
       </c>
       <c r="O33" t="n">
-        <v>510.0354797381544</v>
+        <v>510.0354797381543</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>7.03536674667771</v>
@@ -10588,28 +10588,28 @@
         <v>13.35238603422147</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>533.09768008374</v>
+        <v>533.0976800837399</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>507.714642684169</v>
       </c>
       <c r="N35" t="n">
-        <v>442.7169049649386</v>
+        <v>503.6155965527525</v>
       </c>
       <c r="O35" t="n">
-        <v>516.2838749345203</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>94.2828910692167</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>62.9163925843997</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>521.0869411927353</v>
+        <v>516.943841420704</v>
       </c>
       <c r="M36" t="n">
-        <v>91.93769092970327</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>510.0354797381544</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10688,7 +10688,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>533.0976800837399</v>
       </c>
       <c r="M38" t="n">
-        <v>507.7146426841691</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>152.3075304411287</v>
+        <v>166.9552391002795</v>
       </c>
       <c r="O38" t="n">
-        <v>516.2838749345203</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>11.7581146425664</v>
       </c>
       <c r="R38" t="n">
-        <v>62.9163925843997</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>516.943841420704</v>
       </c>
       <c r="M39" t="n">
-        <v>124.8774913869655</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>488.1471407354737</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>510.0354797381544</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -10925,7 +10925,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>13.35238603422147</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>154.355329514281</v>
       </c>
       <c r="M41" t="n">
-        <v>507.7146426841691</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>503.6155965527526</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>516.2838749345203</v>
+        <v>516.2838749345206</v>
       </c>
       <c r="P41" t="n">
-        <v>150.6979186358891</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
@@ -11138,22 +11138,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>20.30774169145049</v>
+        <v>192.5589153590063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>521.0869411927355</v>
       </c>
       <c r="M42" t="n">
-        <v>124.877491386965</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>488.1471407354737</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>510.0354797381544</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11162,7 +11162,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>53.8575776449813</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>13.35238603422147</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>533.09768008374</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>507.7146426841691</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>454.9469960787941</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.5996483971347</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>11.7581146425664</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>62.9163925843997</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>20.30774169145049</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>521.0869411927353</v>
+        <v>516.9438414207044</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.7028151289506</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>510.0354797381544</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.03536674667771</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23260,13 +23260,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>71.25872011631819</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>89.56472275210685</v>
@@ -23311,16 +23311,16 @@
         <v>136.8378531040666</v>
       </c>
       <c r="T11" t="n">
-        <v>215.8847404892529</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0968656679989</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>76.82695854626331</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23421,7 +23421,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
@@ -23430,13 +23430,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.021494497001</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>111.3003006628669</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>200.7171104809102</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23503,7 +23503,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>108.6760942717515</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>166.3916812983701</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>136.8378531040666</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>158.1877657642275</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>149.021494497001</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>97.86992168242006</v>
       </c>
       <c r="S16" t="n">
-        <v>191.1788702526329</v>
+        <v>94.03801110089606</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>282.5543285581185</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>407.8019204350209</v>
       </c>
       <c r="H17" t="n">
-        <v>308.2535983959666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>89.56472275210685</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4155931329331</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U17" t="n">
         <v>253.0968656679989</v>
@@ -23794,10 +23794,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>18.48151005242835</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23892,19 +23892,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H19" t="n">
         <v>149.021494497001</v>
@@ -23940,25 +23940,25 @@
         <v>97.86992168242006</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T19" t="n">
-        <v>231.0059641921533</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>94.2729193169335</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>111.3003006628669</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>166.3916812983701</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.158051727618329</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>136.8378531040666</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>149.021494497001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>97.86992168242006</v>
       </c>
       <c r="S22" t="n">
-        <v>191.1788702526329</v>
+        <v>118.3606718247069</v>
       </c>
       <c r="T22" t="n">
-        <v>113.301557751212</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>131.5083305279145</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I23" t="n">
         <v>89.56472275210685</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.2412845093522</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T23" t="n">
         <v>215.8847404892529</v>
@@ -24265,16 +24265,16 @@
         <v>253.0968656679989</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>149.021494497001</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S25" t="n">
-        <v>92.94445094562343</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>231.0059641921533</v>
@@ -24429,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>19.4161749498989</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>308.2535983959666</v>
       </c>
       <c r="I26" t="n">
-        <v>89.56472275210685</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>136.8378531040666</v>
       </c>
       <c r="T26" t="n">
-        <v>215.8847404892529</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0968656679989</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.88176521396213</v>
+        <v>71.73664046821722</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>149.021494497001</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>97.86992168242006</v>
       </c>
       <c r="S28" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>56.43949327556845</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.2620420326513226</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>308.2535983959666</v>
+        <v>2.367517634362969</v>
       </c>
       <c r="I29" t="n">
-        <v>89.56472275210685</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>136.8378531040666</v>
       </c>
       <c r="T29" t="n">
-        <v>215.8847404892529</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0968656679989</v>
@@ -24745,10 +24745,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>126.2956172595697</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>38.54753000579805</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0201331842246</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5543285581185</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>53.04783594477306</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>407.8019204350209</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>308.2535983959666</v>
       </c>
       <c r="I32" t="n">
-        <v>89.56472275210685</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>136.8378531040666</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>143.3774903316544</v>
+        <v>63.84894591374464</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>149.021494497001</v>
       </c>
       <c r="I34" t="n">
         <v>115.1819754130301</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S34" t="n">
-        <v>191.1788702526329</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>231.0059641921533</v>
       </c>
       <c r="U34" t="n">
         <v>282.5543285581185</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>229.1352795801751</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>191.7597497536102</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>231.9867278776026</v>
+        <v>168.780533824923</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H35" t="n">
         <v>308.2535983959666</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>136.8378531040666</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.8847404892529</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0968656679989</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>149.021494497001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1819754130301</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>97.86992168242006</v>
       </c>
       <c r="S37" t="n">
-        <v>191.1788702526329</v>
+        <v>38.39705860171131</v>
       </c>
       <c r="T37" t="n">
         <v>231.0059641921533</v>
@@ -25371,16 +25371,16 @@
         <v>282.5543285581185</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>259.3549126302001</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>407.8019204350209</v>
+        <v>311.2547493283772</v>
       </c>
       <c r="H38" t="n">
         <v>308.2535983959666</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>136.8378531040666</v>
       </c>
       <c r="T38" t="n">
         <v>215.8847404892529</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>49.32629635009158</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0201331842246</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>149.021494497001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>146.7170890764436</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>144.0960237602042</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>93.89987339540102</v>
+        <v>393.7087654887949</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>149.021494497001</v>
       </c>
       <c r="I43" t="n">
         <v>115.1819754130301</v>
@@ -25839,22 +25839,22 @@
         <v>191.1788702526329</v>
       </c>
       <c r="T43" t="n">
-        <v>57.85866210091487</v>
+        <v>111.3003006628669</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5543285581185</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.8019204350209</v>
       </c>
       <c r="H44" t="n">
-        <v>308.2535983959666</v>
+        <v>83.82638947311236</v>
       </c>
       <c r="I44" t="n">
-        <v>4.310778335308484</v>
+        <v>89.56472275210685</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>253.0968656679989</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0201331842246</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1819754130301</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>97.86992168242006</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>191.1788702526329</v>
       </c>
       <c r="T46" t="n">
         <v>231.0059641921533</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5543285581185</v>
+        <v>132.6906325900189</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>174.1478428340803</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>930630.4006046719</v>
+        <v>930630.4006046718</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607125.5465980537</v>
+        <v>607125.5465980541</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607125.5465980538</v>
+        <v>607125.546598054</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>607125.546598054</v>
+        <v>607125.5465980538</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607125.5465980542</v>
+        <v>607125.5465980538</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607125.546598054</v>
+        <v>607125.5465980539</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607125.546598054</v>
+        <v>607125.5465980541</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607125.5465980542</v>
+        <v>607125.546598054</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607125.546598054</v>
+        <v>607125.5465980541</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>432797.2274240563</v>
       </c>
       <c r="D2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240564</v>
       </c>
       <c r="E2" t="n">
         <v>282661.1606168403</v>
@@ -26328,16 +26328,16 @@
         <v>282661.1606168402</v>
       </c>
       <c r="G2" t="n">
+        <v>282661.1606168402</v>
+      </c>
+      <c r="H2" t="n">
         <v>282661.1606168401</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282661.1606168402</v>
       </c>
       <c r="I2" t="n">
         <v>282661.1606168402</v>
       </c>
       <c r="J2" t="n">
-        <v>282661.1606168401</v>
+        <v>282661.1606168402</v>
       </c>
       <c r="K2" t="n">
         <v>282661.1606168404</v>
@@ -26346,16 +26346,16 @@
         <v>282661.1606168402</v>
       </c>
       <c r="M2" t="n">
-        <v>282661.1606168403</v>
+        <v>282661.1606168402</v>
       </c>
       <c r="N2" t="n">
         <v>282661.1606168402</v>
       </c>
       <c r="O2" t="n">
-        <v>282661.1606168402</v>
+        <v>282661.1606168401</v>
       </c>
       <c r="P2" t="n">
-        <v>282661.1606168402</v>
+        <v>282661.1606168404</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>150138.5685531531</v>
+        <v>150138.568553153</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>260187.645055422</v>
       </c>
       <c r="D4" t="n">
-        <v>260187.645055422</v>
+        <v>260187.6450554221</v>
       </c>
       <c r="E4" t="n">
         <v>65825.49656193046</v>
       </c>
       <c r="F4" t="n">
-        <v>65825.49656193044</v>
+        <v>65825.49656193046</v>
       </c>
       <c r="G4" t="n">
         <v>65825.49656193046</v>
@@ -26438,28 +26438,28 @@
         <v>65825.49656193046</v>
       </c>
       <c r="I4" t="n">
+        <v>65825.49656193047</v>
+      </c>
+      <c r="J4" t="n">
         <v>65825.49656193046</v>
       </c>
-      <c r="J4" t="n">
-        <v>65825.49656193047</v>
-      </c>
       <c r="K4" t="n">
-        <v>65825.49656193049</v>
+        <v>65825.49656193046</v>
       </c>
       <c r="L4" t="n">
-        <v>65825.49656193049</v>
+        <v>65825.49656193046</v>
       </c>
       <c r="M4" t="n">
         <v>65825.49656193046</v>
       </c>
       <c r="N4" t="n">
-        <v>65825.49656193047</v>
+        <v>65825.49656193046</v>
       </c>
       <c r="O4" t="n">
         <v>65825.49656193047</v>
       </c>
       <c r="P4" t="n">
-        <v>65825.49656193047</v>
+        <v>65825.49656193046</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>68516.32272259906</v>
       </c>
       <c r="C5" t="n">
-        <v>68516.32272259906</v>
+        <v>68516.32272259904</v>
       </c>
       <c r="D5" t="n">
         <v>68516.32272259904</v>
@@ -26487,25 +26487,25 @@
         <v>41554.4078117436</v>
       </c>
       <c r="H5" t="n">
+        <v>41554.40781174361</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41554.40781174361</v>
+      </c>
+      <c r="J5" t="n">
         <v>41554.4078117436</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>41554.4078117436</v>
       </c>
-      <c r="J5" t="n">
-        <v>41554.40781174361</v>
-      </c>
-      <c r="K5" t="n">
-        <v>41554.40781174361</v>
-      </c>
       <c r="L5" t="n">
-        <v>41554.40781174361</v>
+        <v>41554.4078117436</v>
       </c>
       <c r="M5" t="n">
-        <v>41554.40781174361</v>
+        <v>41554.4078117436</v>
       </c>
       <c r="N5" t="n">
-        <v>41554.40781174361</v>
+        <v>41554.4078117436</v>
       </c>
       <c r="O5" t="n">
         <v>41554.40781174361</v>
@@ -26524,46 +26524,46 @@
         <v>-88209.59273826671</v>
       </c>
       <c r="C6" t="n">
-        <v>104093.2596460352</v>
+        <v>104093.2596460353</v>
       </c>
       <c r="D6" t="n">
-        <v>104093.2596460352</v>
+        <v>104093.2596460353</v>
       </c>
       <c r="E6" t="n">
-        <v>-70371.56016389816</v>
+        <v>-70997.12710892824</v>
       </c>
       <c r="F6" t="n">
-        <v>175281.2562431661</v>
+        <v>174655.6892981361</v>
       </c>
       <c r="G6" t="n">
-        <v>175281.256243166</v>
+        <v>174655.6892981361</v>
       </c>
       <c r="H6" t="n">
-        <v>175281.2562431662</v>
+        <v>174655.689298136</v>
       </c>
       <c r="I6" t="n">
-        <v>175281.2562431661</v>
+        <v>174655.6892981361</v>
       </c>
       <c r="J6" t="n">
-        <v>25142.68769001294</v>
+        <v>24517.12074498307</v>
       </c>
       <c r="K6" t="n">
-        <v>175281.2562431663</v>
+        <v>174655.6892981362</v>
       </c>
       <c r="L6" t="n">
-        <v>175281.2562431661</v>
+        <v>174655.6892981361</v>
       </c>
       <c r="M6" t="n">
-        <v>175281.2562431662</v>
+        <v>174655.6892981361</v>
       </c>
       <c r="N6" t="n">
-        <v>175281.2562431662</v>
+        <v>174655.689298136</v>
       </c>
       <c r="O6" t="n">
-        <v>175281.2562431661</v>
+        <v>174655.689298136</v>
       </c>
       <c r="P6" t="n">
-        <v>175281.2562431662</v>
+        <v>174655.6892981363</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>573.827676358537</v>
       </c>
       <c r="C4" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="D4" t="n">
         <v>573.8276763585369</v>
@@ -26807,28 +26807,28 @@
         <v>573.8276763585369</v>
       </c>
       <c r="H4" t="n">
+        <v>573.827676358537</v>
+      </c>
+      <c r="I4" t="n">
+        <v>573.827676358537</v>
+      </c>
+      <c r="J4" t="n">
         <v>573.8276763585369</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>573.8276763585369</v>
       </c>
-      <c r="J4" t="n">
-        <v>573.827676358537</v>
-      </c>
-      <c r="K4" t="n">
-        <v>573.827676358537</v>
-      </c>
       <c r="L4" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="M4" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="N4" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="O4" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585371</v>
       </c>
       <c r="P4" t="n">
         <v>573.827676358537</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>573.8276763585371</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>120.6290076234735</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>157.5978863169605</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>68.24173321366912</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>68.24173321366887</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>69.10327304716637</v>
+        <v>40.14277372917238</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27605,7 +27605,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>33.18742638819427</v>
+        <v>162.218627976916</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>68.24173321366932</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>68.24173321366911</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>55.66492997316341</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>180.1536926616655</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>254.6284885244803</v>
       </c>
       <c r="D8" t="n">
-        <v>256.5135489296136</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27934,13 +27934,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>68.24173321366949</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>68.24173321366953</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28028,7 +28028,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>148.0226175536612</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>192.5440105574261</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34710,13 +34710,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>82.38990867958461</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>139.8425250065484</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34780,7 +34780,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>285.0298307703341</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34792,13 +34792,13 @@
         <v>573.827676358537</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.02458729953545888</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,16 +34947,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>175.1698165187833</v>
+        <v>269.1025956906435</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>114.2821450972401</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>573.827676358537</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>126.1701184635942</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>375.0995778672963</v>
+        <v>361.8825035298421</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>178.2601356393217</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>114.2821450972401</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>518.9682467400683</v>
       </c>
       <c r="L11" t="n">
-        <v>573.8276763585369</v>
+        <v>40.72999627479706</v>
       </c>
       <c r="M11" t="n">
         <v>66.1130336743679</v>
@@ -35424,13 +35424,13 @@
         <v>70.21207980578441</v>
       </c>
       <c r="O11" t="n">
-        <v>57.54380142401664</v>
+        <v>477.7446722386036</v>
       </c>
       <c r="P11" t="n">
         <v>528.466115658881</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.5564615177324</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>176.3942734395873</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>16.60460868909834</v>
@@ -35500,10 +35500,10 @@
         <v>573.8276763585369</v>
       </c>
       <c r="N12" t="n">
-        <v>85.68053562306332</v>
+        <v>157.6912471911548</v>
       </c>
       <c r="O12" t="n">
-        <v>486.6003417477206</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="P12" t="n">
         <v>38.50543447581072</v>
@@ -35512,7 +35512,7 @@
         <v>320.6852021212469</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K14" t="n">
-        <v>107.5842941982677</v>
+        <v>518.9682467400683</v>
       </c>
       <c r="L14" t="n">
-        <v>573.8276763585369</v>
+        <v>415.620986735275</v>
       </c>
       <c r="M14" t="n">
         <v>573.8276763585369</v>
       </c>
       <c r="N14" t="n">
-        <v>573.8276763585369</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O14" t="n">
         <v>57.54380142401664</v>
@@ -35731,16 +35731,16 @@
         <v>429.170378428721</v>
       </c>
       <c r="L15" t="n">
-        <v>52.74073516580172</v>
+        <v>569.6845765865057</v>
       </c>
       <c r="M15" t="n">
-        <v>98.31959412253083</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N15" t="n">
         <v>85.68053562306332</v>
       </c>
       <c r="O15" t="n">
-        <v>573.8276763585369</v>
+        <v>63.79219662038268</v>
       </c>
       <c r="P15" t="n">
         <v>535.3073535541126</v>
@@ -35749,7 +35749,7 @@
         <v>320.6852021212469</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K17" t="n">
-        <v>472.3474453392618</v>
+        <v>13.30140312905121</v>
       </c>
       <c r="L17" t="n">
+        <v>40.72999627479706</v>
+      </c>
+      <c r="M17" t="n">
         <v>573.8276763585369</v>
-      </c>
-      <c r="M17" t="n">
-        <v>66.1130336743679</v>
       </c>
       <c r="N17" t="n">
         <v>573.8276763585369</v>
@@ -35901,13 +35901,13 @@
         <v>57.54380142401664</v>
       </c>
       <c r="P17" t="n">
-        <v>528.466115658881</v>
+        <v>403.4023684301109</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>39.6012224174529</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K18" t="n">
         <v>429.170378428721</v>
       </c>
       <c r="L18" t="n">
-        <v>573.8276763585369</v>
+        <v>569.6845765865057</v>
       </c>
       <c r="M18" t="n">
         <v>74.25500517930196</v>
       </c>
       <c r="N18" t="n">
-        <v>565.3833507520144</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O18" t="n">
-        <v>573.8276763585369</v>
+        <v>63.79219662038268</v>
       </c>
       <c r="P18" t="n">
-        <v>38.50543447581072</v>
+        <v>535.3073535541126</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>320.6852021212469</v>
       </c>
       <c r="R18" t="n">
         <v>17.15622726067918</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K20" t="n">
         <v>518.9682467400683</v>
       </c>
       <c r="L20" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="M20" t="n">
-        <v>66.1130336743679</v>
+        <v>258.3916050050927</v>
       </c>
       <c r="N20" t="n">
-        <v>207.7536041708453</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O20" t="n">
-        <v>57.54380142401664</v>
+        <v>573.827676358537</v>
       </c>
       <c r="P20" t="n">
-        <v>528.466115658881</v>
+        <v>26.46013091136811</v>
       </c>
       <c r="Q20" t="n">
-        <v>319.4532707868849</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K21" t="n">
         <v>429.170378428721</v>
       </c>
       <c r="L21" t="n">
-        <v>573.8276763585369</v>
+        <v>52.74073516580172</v>
       </c>
       <c r="M21" t="n">
-        <v>82.96690683345874</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N21" t="n">
-        <v>573.8276763585369</v>
+        <v>92.58889730561343</v>
       </c>
       <c r="O21" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="P21" t="n">
-        <v>38.50543447581072</v>
+        <v>535.3073535541126</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>320.6852021212469</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K23" t="n">
-        <v>147.1855166157204</v>
+        <v>518.9682467400683</v>
       </c>
       <c r="L23" t="n">
-        <v>573.8276763585369</v>
+        <v>40.72999627479706</v>
       </c>
       <c r="M23" t="n">
-        <v>573.8276763585369</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N23" t="n">
-        <v>573.8276763585369</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O23" t="n">
-        <v>57.54380142401664</v>
+        <v>477.7446722386041</v>
       </c>
       <c r="P23" t="n">
-        <v>26.46013091136811</v>
+        <v>528.466115658881</v>
       </c>
       <c r="Q23" t="n">
         <v>319.4532707868849</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K24" t="n">
-        <v>16.60460868909834</v>
+        <v>429.170378428721</v>
       </c>
       <c r="L24" t="n">
-        <v>52.74073516580172</v>
+        <v>573.827676358537</v>
       </c>
       <c r="M24" t="n">
-        <v>573.8276763585369</v>
+        <v>394.7197741293449</v>
       </c>
       <c r="N24" t="n">
-        <v>573.8276763585369</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O24" t="n">
-        <v>573.8276763585369</v>
+        <v>573.827676358537</v>
       </c>
       <c r="P24" t="n">
-        <v>481.2973758830902</v>
+        <v>38.50543447581072</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K26" t="n">
-        <v>466.6387874026057</v>
+        <v>518.9682467400683</v>
       </c>
       <c r="L26" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="M26" t="n">
-        <v>573.827676358537</v>
+        <v>271.0598833868606</v>
       </c>
       <c r="N26" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="O26" t="n">
         <v>57.54380142401664</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K27" t="n">
-        <v>16.60460868909834</v>
+        <v>429.170378428721</v>
       </c>
       <c r="L27" t="n">
-        <v>498.3034286740144</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="M27" t="n">
-        <v>74.25500517930196</v>
+        <v>377.5635468686658</v>
       </c>
       <c r="N27" t="n">
-        <v>573.827676358537</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O27" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="P27" t="n">
-        <v>535.3073535541126</v>
+        <v>38.50543447581072</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K29" t="n">
-        <v>13.30140312905121</v>
+        <v>518.9682467400683</v>
       </c>
       <c r="L29" t="n">
         <v>40.72999627479706</v>
       </c>
       <c r="M29" t="n">
-        <v>573.827676358537</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N29" t="n">
-        <v>573.827676358537</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O29" t="n">
-        <v>541.9728810337981</v>
+        <v>438.1434498211509</v>
       </c>
       <c r="P29" t="n">
         <v>528.466115658881</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>39.6012224174529</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>108.5422996188023</v>
+        <v>16.60460868909834</v>
       </c>
       <c r="L30" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="M30" t="n">
-        <v>74.25500517930196</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="N30" t="n">
-        <v>85.68053562306332</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="O30" t="n">
-        <v>573.827676358537</v>
+        <v>495.5326765730812</v>
       </c>
       <c r="P30" t="n">
-        <v>535.3073535541126</v>
+        <v>38.50543447581072</v>
       </c>
       <c r="Q30" t="n">
-        <v>320.6852021212469</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K32" t="n">
-        <v>130.1067572841438</v>
+        <v>168.0299991005883</v>
       </c>
       <c r="L32" t="n">
-        <v>40.72999627479706</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="M32" t="n">
         <v>66.1130336743679</v>
       </c>
       <c r="N32" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="O32" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="P32" t="n">
-        <v>528.466115658881</v>
+        <v>26.46013091136811</v>
       </c>
       <c r="Q32" t="n">
-        <v>319.4532707868849</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>39.6012224174529</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>176.3942734395873</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>429.170378428721</v>
+        <v>16.60460868909834</v>
       </c>
       <c r="L33" t="n">
-        <v>573.827676358537</v>
+        <v>52.74073516580172</v>
       </c>
       <c r="M33" t="n">
-        <v>74.25500517930196</v>
+        <v>519.8176986875145</v>
       </c>
       <c r="N33" t="n">
-        <v>406.1453045731062</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="O33" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="P33" t="n">
-        <v>38.50543447581072</v>
+        <v>535.3073535541126</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>518.9682467400683</v>
+        <v>13.30140312905121</v>
       </c>
       <c r="L35" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="M35" t="n">
-        <v>66.1130336743679</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="N35" t="n">
-        <v>512.928984770723</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="O35" t="n">
-        <v>573.827676358537</v>
+        <v>57.54380142401664</v>
       </c>
       <c r="P35" t="n">
-        <v>26.46013091136811</v>
+        <v>120.7430219805848</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>39.6012224174529</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K36" t="n">
-        <v>16.60460868909834</v>
+        <v>429.170378428721</v>
       </c>
       <c r="L36" t="n">
-        <v>573.827676358537</v>
+        <v>569.6845765865057</v>
       </c>
       <c r="M36" t="n">
-        <v>166.1926961090052</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N36" t="n">
         <v>85.68053562306332</v>
       </c>
       <c r="O36" t="n">
-        <v>573.827676358537</v>
+        <v>63.79219662038268</v>
       </c>
       <c r="P36" t="n">
         <v>535.3073535541126</v>
@@ -37408,7 +37408,7 @@
         <v>320.6852021212469</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K38" t="n">
-        <v>13.30140312905121</v>
+        <v>518.9682467400683</v>
       </c>
       <c r="L38" t="n">
-        <v>40.72999627479706</v>
+        <v>573.8276763585369</v>
       </c>
       <c r="M38" t="n">
-        <v>573.827676358537</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N38" t="n">
-        <v>222.5196102469131</v>
+        <v>237.1673189060639</v>
       </c>
       <c r="O38" t="n">
-        <v>573.827676358537</v>
+        <v>57.54380142401664</v>
       </c>
       <c r="P38" t="n">
         <v>528.466115658881</v>
       </c>
       <c r="Q38" t="n">
-        <v>319.4532707868849</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>39.6012224174529</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K39" t="n">
-        <v>16.60460868909834</v>
+        <v>429.170378428721</v>
       </c>
       <c r="L39" t="n">
-        <v>52.74073516580172</v>
+        <v>569.6845765865057</v>
       </c>
       <c r="M39" t="n">
-        <v>199.1324965662674</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N39" t="n">
-        <v>573.827676358537</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O39" t="n">
-        <v>573.827676358537</v>
+        <v>63.79219662038268</v>
       </c>
       <c r="P39" t="n">
         <v>535.3073535541126</v>
@@ -37645,7 +37645,7 @@
         <v>320.6852021212469</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.30140312905121</v>
+        <v>518.9682467400683</v>
       </c>
       <c r="L41" t="n">
-        <v>40.72999627479706</v>
+        <v>195.085325789078</v>
       </c>
       <c r="M41" t="n">
-        <v>573.827676358537</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N41" t="n">
-        <v>573.827676358537</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O41" t="n">
-        <v>573.827676358537</v>
+        <v>573.8276763585371</v>
       </c>
       <c r="P41" t="n">
-        <v>177.1580495472572</v>
+        <v>528.466115658881</v>
       </c>
       <c r="Q41" t="n">
         <v>319.4532707868849</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>172.2511736675559</v>
       </c>
       <c r="K42" t="n">
-        <v>16.60460868909834</v>
+        <v>429.170378428721</v>
       </c>
       <c r="L42" t="n">
-        <v>52.74073516580172</v>
+        <v>573.8276763585371</v>
       </c>
       <c r="M42" t="n">
-        <v>199.132496566267</v>
+        <v>74.25500517930196</v>
       </c>
       <c r="N42" t="n">
-        <v>573.827676358537</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O42" t="n">
-        <v>573.827676358537</v>
+        <v>63.79219662038268</v>
       </c>
       <c r="P42" t="n">
         <v>535.3073535541126</v>
@@ -37882,7 +37882,7 @@
         <v>320.6852021212469</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>17.15622726067918</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>250.4383336342136</v>
       </c>
       <c r="K44" t="n">
-        <v>13.30140312905121</v>
+        <v>518.9682467400683</v>
       </c>
       <c r="L44" t="n">
-        <v>573.827676358537</v>
+        <v>40.72999627479706</v>
       </c>
       <c r="M44" t="n">
-        <v>573.827676358537</v>
+        <v>66.1130336743679</v>
       </c>
       <c r="N44" t="n">
-        <v>525.1590758845786</v>
+        <v>70.21207980578441</v>
       </c>
       <c r="O44" t="n">
-        <v>57.54380142401664</v>
+        <v>438.1434498211514</v>
       </c>
       <c r="P44" t="n">
         <v>528.466115658881</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>319.4532707868849</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>39.6012224174529</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>176.3942734395873</v>
       </c>
       <c r="K45" t="n">
         <v>429.170378428721</v>
       </c>
       <c r="L45" t="n">
-        <v>573.827676358537</v>
+        <v>569.6845765865062</v>
       </c>
       <c r="M45" t="n">
         <v>74.25500517930196</v>
       </c>
       <c r="N45" t="n">
-        <v>565.3833507520139</v>
+        <v>85.68053562306332</v>
       </c>
       <c r="O45" t="n">
-        <v>573.827676358537</v>
+        <v>63.79219662038268</v>
       </c>
       <c r="P45" t="n">
-        <v>38.50543447581072</v>
+        <v>535.3073535541126</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>320.6852021212469</v>
       </c>
       <c r="R45" t="n">
         <v>17.15622726067918</v>
